--- a/datasets/raw_data.xlsx
+++ b/datasets/raw_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mingukang\Desktop\데이터\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D084BA2F-E352-4A95-A353-7D8A65DB0EF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AC765CC-3BC3-430E-AC9A-581E38D9BC0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{236FA7A3-6140-44E9-A3A4-429229785287}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{236FA7A3-6140-44E9-A3A4-429229785287}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="239">
   <si>
     <t>err_msg</t>
   </si>
@@ -2456,12 +2456,15 @@
   <si>
     <t>Downloading http://repo.gradle.org/gradle/distributions/gradle-1.0-milestone-4-bin.zipException in thread "main" java.io.IOException: Server returned HTTP response code: 403 for URL: http://repo.gradle.org/gradle/distributions/gradle-1.0-milestone-4-bin.zip at sun.net.www.protocol.http.HttpURLConnection.getInputStream0(HttpURLConnection.java:1900) at sun.net.www.protocol.http.HttpURLConnection.getInputStream(HttpURLConnection.java:1498) at org.gradle.wrapper.Download.downloadInternal(Download.java:49) at org.gradle.wrapper.Download.download(Download.java:37) at org.gradle.wrapper.Install.createDist(Install.java:54) at org.gradle.wrapper.Wrapper.execute(Wrapper.java:117) at org.gradle.wrapper.GradleWrapperMain.main(GradleWrapperMain.java:37)</t>
   </si>
+  <si>
+    <t>rq2_label</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2492,6 +2495,12 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -2501,12 +2510,27 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -2515,9 +2539,15 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2833,15 +2863,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{873CBD14-080A-4DC6-A32F-CF6CAAC396B5}">
-  <dimension ref="A1:C323"/>
+  <dimension ref="A1:D1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H60" sqref="H60"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2851,8 +2881,11 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D1" s="1" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -2862,8 +2895,11 @@
       <c r="C2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D2" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -2873,8 +2909,11 @@
       <c r="C3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D3" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -2884,8 +2923,11 @@
       <c r="C4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D4" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -2895,8 +2937,11 @@
       <c r="C5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D5" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -2906,8 +2951,11 @@
       <c r="C6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D6" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -2917,8 +2965,11 @@
       <c r="C7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D7" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -2928,8 +2979,11 @@
       <c r="C8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D8" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -2939,8 +2993,11 @@
       <c r="C9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D9" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -2950,8 +3007,11 @@
       <c r="C10">
         <v>2</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D10" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>232</v>
       </c>
@@ -2961,8 +3021,11 @@
       <c r="C11">
         <v>2</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D11" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>233</v>
       </c>
@@ -2972,8 +3035,11 @@
       <c r="C12">
         <v>2</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D12" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>234</v>
       </c>
@@ -2983,8 +3049,11 @@
       <c r="C13">
         <v>2</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D13" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>235</v>
       </c>
@@ -2994,8 +3063,11 @@
       <c r="C14">
         <v>2</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D14" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>236</v>
       </c>
@@ -3005,8 +3077,11 @@
       <c r="C15">
         <v>2</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D15" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>12</v>
       </c>
@@ -3016,8 +3091,11 @@
       <c r="C16">
         <v>2</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D16" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>13</v>
       </c>
@@ -3027,8 +3105,11 @@
       <c r="C17">
         <v>2</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D17" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>14</v>
       </c>
@@ -3038,8 +3119,11 @@
       <c r="C18">
         <v>2</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D18" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>15</v>
       </c>
@@ -3049,8 +3133,11 @@
       <c r="C19">
         <v>2</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D19" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>16</v>
       </c>
@@ -3060,8 +3147,11 @@
       <c r="C20">
         <v>2</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D20" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>17</v>
       </c>
@@ -3071,8 +3161,11 @@
       <c r="C21">
         <v>2</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D21" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>18</v>
       </c>
@@ -3082,8 +3175,11 @@
       <c r="C22">
         <v>2</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D22" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>19</v>
       </c>
@@ -3093,8 +3189,11 @@
       <c r="C23">
         <v>2</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D23" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>20</v>
       </c>
@@ -3104,8 +3203,11 @@
       <c r="C24">
         <v>2</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D24" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>21</v>
       </c>
@@ -3115,8 +3217,11 @@
       <c r="C25">
         <v>2</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D25" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>22</v>
       </c>
@@ -3126,8 +3231,11 @@
       <c r="C26">
         <v>2</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D26" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>23</v>
       </c>
@@ -3137,8 +3245,11 @@
       <c r="C27">
         <v>2</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D27" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>24</v>
       </c>
@@ -3148,8 +3259,11 @@
       <c r="C28">
         <v>2</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D28" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>25</v>
       </c>
@@ -3159,8 +3273,11 @@
       <c r="C29">
         <v>2</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D29" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>26</v>
       </c>
@@ -3170,8 +3287,11 @@
       <c r="C30">
         <v>2</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D30" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>27</v>
       </c>
@@ -3181,8 +3301,11 @@
       <c r="C31">
         <v>2</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D31" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>28</v>
       </c>
@@ -3192,8 +3315,11 @@
       <c r="C32">
         <v>2</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D32" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>29</v>
       </c>
@@ -3203,8 +3329,11 @@
       <c r="C33">
         <v>2</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D33" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>30</v>
       </c>
@@ -3214,8 +3343,11 @@
       <c r="C34">
         <v>2</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D34" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>31</v>
       </c>
@@ -3225,8 +3357,11 @@
       <c r="C35">
         <v>2</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D35" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>32</v>
       </c>
@@ -3236,8 +3371,11 @@
       <c r="C36">
         <v>2</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D36" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>33</v>
       </c>
@@ -3247,8 +3385,11 @@
       <c r="C37">
         <v>2</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D37" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>34</v>
       </c>
@@ -3258,8 +3399,11 @@
       <c r="C38">
         <v>2</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D38" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>35</v>
       </c>
@@ -3269,8 +3413,11 @@
       <c r="C39">
         <v>2</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D39" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>36</v>
       </c>
@@ -3280,8 +3427,11 @@
       <c r="C40">
         <v>2</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D40" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>37</v>
       </c>
@@ -3291,8 +3441,11 @@
       <c r="C41">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D41" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>38</v>
       </c>
@@ -3302,8 +3455,11 @@
       <c r="C42">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D42" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>39</v>
       </c>
@@ -3313,8 +3469,11 @@
       <c r="C43">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D43" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>40</v>
       </c>
@@ -3324,8 +3483,11 @@
       <c r="C44">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D44" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>41</v>
       </c>
@@ -3335,8 +3497,11 @@
       <c r="C45">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D45" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>42</v>
       </c>
@@ -3346,8 +3511,11 @@
       <c r="C46">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D46" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>43</v>
       </c>
@@ -3357,8 +3525,11 @@
       <c r="C47">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D47" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>44</v>
       </c>
@@ -3368,8 +3539,11 @@
       <c r="C48">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D48" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>45</v>
       </c>
@@ -3379,8 +3553,11 @@
       <c r="C49">
         <v>4</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D49" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>46</v>
       </c>
@@ -3390,8 +3567,11 @@
       <c r="C50">
         <v>4</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D50" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>47</v>
       </c>
@@ -3401,8 +3581,11 @@
       <c r="C51">
         <v>4</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D51" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>48</v>
       </c>
@@ -3412,8 +3595,11 @@
       <c r="C52">
         <v>4</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D52" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>49</v>
       </c>
@@ -3423,8 +3609,11 @@
       <c r="C53">
         <v>5</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D53" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>50</v>
       </c>
@@ -3434,8 +3623,11 @@
       <c r="C54">
         <v>6</v>
       </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D54" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>51</v>
       </c>
@@ -3445,8 +3637,11 @@
       <c r="C55">
         <v>6</v>
       </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D55" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>52</v>
       </c>
@@ -3456,8 +3651,11 @@
       <c r="C56">
         <v>6</v>
       </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D56" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>53</v>
       </c>
@@ -3467,8 +3665,11 @@
       <c r="C57">
         <v>6</v>
       </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D57" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>54</v>
       </c>
@@ -3478,8 +3679,11 @@
       <c r="C58">
         <v>6</v>
       </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D58" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>55</v>
       </c>
@@ -3489,8 +3693,11 @@
       <c r="C59">
         <v>6</v>
       </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D59" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>56</v>
       </c>
@@ -3500,8 +3707,11 @@
       <c r="C60">
         <v>6</v>
       </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D60" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>57</v>
       </c>
@@ -3511,8 +3721,11 @@
       <c r="C61">
         <v>6</v>
       </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D61" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>58</v>
       </c>
@@ -3522,8 +3735,11 @@
       <c r="C62">
         <v>6</v>
       </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D62" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>59</v>
       </c>
@@ -3533,8 +3749,11 @@
       <c r="C63">
         <v>6</v>
       </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D63" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>60</v>
       </c>
@@ -3544,8 +3763,11 @@
       <c r="C64">
         <v>6</v>
       </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D64" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>61</v>
       </c>
@@ -3555,8 +3777,11 @@
       <c r="C65">
         <v>6</v>
       </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D65" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>62</v>
       </c>
@@ -3566,8 +3791,11 @@
       <c r="C66">
         <v>6</v>
       </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D66" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>63</v>
       </c>
@@ -3577,8 +3805,11 @@
       <c r="C67">
         <v>6</v>
       </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D67" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>64</v>
       </c>
@@ -3588,8 +3819,11 @@
       <c r="C68">
         <v>6</v>
       </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D68" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>65</v>
       </c>
@@ -3599,8 +3833,11 @@
       <c r="C69">
         <v>6</v>
       </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D69" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>66</v>
       </c>
@@ -3610,8 +3847,11 @@
       <c r="C70">
         <v>6</v>
       </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D70" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>67</v>
       </c>
@@ -3621,8 +3861,11 @@
       <c r="C71">
         <v>6</v>
       </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D71" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>68</v>
       </c>
@@ -3632,8 +3875,11 @@
       <c r="C72">
         <v>6</v>
       </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D72" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>68</v>
       </c>
@@ -3643,8 +3889,11 @@
       <c r="C73">
         <v>6</v>
       </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D73" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>69</v>
       </c>
@@ -3654,8 +3903,11 @@
       <c r="C74">
         <v>6</v>
       </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D74" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>70</v>
       </c>
@@ -3665,8 +3917,11 @@
       <c r="C75">
         <v>6</v>
       </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D75" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>71</v>
       </c>
@@ -3676,8 +3931,11 @@
       <c r="C76">
         <v>6</v>
       </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D76" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>72</v>
       </c>
@@ -3687,8 +3945,11 @@
       <c r="C77">
         <v>6</v>
       </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D77" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>73</v>
       </c>
@@ -3698,8 +3959,11 @@
       <c r="C78">
         <v>7</v>
       </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D78" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>74</v>
       </c>
@@ -3709,8 +3973,11 @@
       <c r="C79">
         <v>7</v>
       </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D79" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>75</v>
       </c>
@@ -3720,8 +3987,11 @@
       <c r="C80">
         <v>8</v>
       </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D80" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>76</v>
       </c>
@@ -3731,8 +4001,11 @@
       <c r="C81">
         <v>8</v>
       </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D81" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>77</v>
       </c>
@@ -3742,8 +4015,11 @@
       <c r="C82">
         <v>8</v>
       </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D82" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>77</v>
       </c>
@@ -3753,8 +4029,11 @@
       <c r="C83">
         <v>8</v>
       </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D83" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>77</v>
       </c>
@@ -3764,8 +4043,11 @@
       <c r="C84">
         <v>8</v>
       </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D84" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>77</v>
       </c>
@@ -3775,8 +4057,11 @@
       <c r="C85">
         <v>8</v>
       </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D85" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>77</v>
       </c>
@@ -3786,8 +4071,11 @@
       <c r="C86">
         <v>8</v>
       </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D86" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>77</v>
       </c>
@@ -3797,8 +4085,11 @@
       <c r="C87">
         <v>8</v>
       </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D87" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>77</v>
       </c>
@@ -3808,8 +4099,11 @@
       <c r="C88">
         <v>8</v>
       </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D88" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>77</v>
       </c>
@@ -3819,8 +4113,11 @@
       <c r="C89">
         <v>8</v>
       </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D89" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>77</v>
       </c>
@@ -3830,8 +4127,11 @@
       <c r="C90">
         <v>8</v>
       </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D90" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>77</v>
       </c>
@@ -3841,8 +4141,11 @@
       <c r="C91">
         <v>8</v>
       </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D91" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>77</v>
       </c>
@@ -3852,8 +4155,11 @@
       <c r="C92">
         <v>8</v>
       </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D92" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>77</v>
       </c>
@@ -3863,8 +4169,11 @@
       <c r="C93">
         <v>8</v>
       </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D93" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>77</v>
       </c>
@@ -3874,8 +4183,11 @@
       <c r="C94">
         <v>8</v>
       </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D94" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>77</v>
       </c>
@@ -3885,8 +4197,11 @@
       <c r="C95">
         <v>8</v>
       </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D95" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>77</v>
       </c>
@@ -3896,8 +4211,11 @@
       <c r="C96">
         <v>8</v>
       </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D96" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>77</v>
       </c>
@@ -3907,8 +4225,11 @@
       <c r="C97">
         <v>8</v>
       </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D97" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>77</v>
       </c>
@@ -3918,8 +4239,11 @@
       <c r="C98">
         <v>8</v>
       </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D98" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>77</v>
       </c>
@@ -3929,8 +4253,11 @@
       <c r="C99">
         <v>8</v>
       </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D99" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>78</v>
       </c>
@@ -3940,8 +4267,11 @@
       <c r="C100">
         <v>8</v>
       </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D100" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>79</v>
       </c>
@@ -3951,8 +4281,11 @@
       <c r="C101">
         <v>8</v>
       </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D101" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>80</v>
       </c>
@@ -3962,8 +4295,11 @@
       <c r="C102">
         <v>8</v>
       </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D102" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>81</v>
       </c>
@@ -3973,8 +4309,11 @@
       <c r="C103">
         <v>8</v>
       </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D103" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>82</v>
       </c>
@@ -3984,8 +4323,11 @@
       <c r="C104">
         <v>8</v>
       </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D104" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>83</v>
       </c>
@@ -3995,8 +4337,11 @@
       <c r="C105">
         <v>8</v>
       </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D105" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>83</v>
       </c>
@@ -4006,8 +4351,11 @@
       <c r="C106">
         <v>8</v>
       </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D106" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>83</v>
       </c>
@@ -4017,8 +4365,11 @@
       <c r="C107">
         <v>8</v>
       </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D107" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>83</v>
       </c>
@@ -4028,8 +4379,11 @@
       <c r="C108">
         <v>8</v>
       </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D108" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>83</v>
       </c>
@@ -4039,8 +4393,11 @@
       <c r="C109">
         <v>8</v>
       </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D109" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>83</v>
       </c>
@@ -4050,8 +4407,11 @@
       <c r="C110">
         <v>8</v>
       </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D110" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>83</v>
       </c>
@@ -4061,8 +4421,11 @@
       <c r="C111">
         <v>8</v>
       </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D111" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>84</v>
       </c>
@@ -4072,8 +4435,11 @@
       <c r="C112">
         <v>8</v>
       </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D112" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>85</v>
       </c>
@@ -4083,8 +4449,11 @@
       <c r="C113">
         <v>8</v>
       </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D113" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>86</v>
       </c>
@@ -4094,8 +4463,11 @@
       <c r="C114">
         <v>8</v>
       </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D114" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>87</v>
       </c>
@@ -4105,8 +4477,11 @@
       <c r="C115">
         <v>8</v>
       </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D115" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>88</v>
       </c>
@@ -4116,8 +4491,11 @@
       <c r="C116">
         <v>8</v>
       </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D116" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>89</v>
       </c>
@@ -4127,8 +4505,11 @@
       <c r="C117">
         <v>8</v>
       </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D117" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>89</v>
       </c>
@@ -4138,8 +4519,11 @@
       <c r="C118">
         <v>8</v>
       </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D118" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>90</v>
       </c>
@@ -4149,8 +4533,11 @@
       <c r="C119">
         <v>8</v>
       </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D119" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>91</v>
       </c>
@@ -4160,8 +4547,11 @@
       <c r="C120">
         <v>8</v>
       </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D120" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>92</v>
       </c>
@@ -4171,8 +4561,11 @@
       <c r="C121">
         <v>8</v>
       </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D121" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>93</v>
       </c>
@@ -4182,8 +4575,11 @@
       <c r="C122">
         <v>8</v>
       </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D122" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>94</v>
       </c>
@@ -4193,8 +4589,11 @@
       <c r="C123">
         <v>8</v>
       </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D123" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>94</v>
       </c>
@@ -4204,8 +4603,11 @@
       <c r="C124">
         <v>8</v>
       </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D124" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>94</v>
       </c>
@@ -4215,8 +4617,11 @@
       <c r="C125">
         <v>8</v>
       </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D125" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>94</v>
       </c>
@@ -4226,8 +4631,11 @@
       <c r="C126">
         <v>8</v>
       </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D126" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>94</v>
       </c>
@@ -4237,8 +4645,11 @@
       <c r="C127">
         <v>8</v>
       </c>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D127" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>94</v>
       </c>
@@ -4248,8 +4659,11 @@
       <c r="C128">
         <v>8</v>
       </c>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D128" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>94</v>
       </c>
@@ -4259,8 +4673,11 @@
       <c r="C129">
         <v>8</v>
       </c>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D129" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>95</v>
       </c>
@@ -4270,8 +4687,11 @@
       <c r="C130">
         <v>8</v>
       </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D130" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>96</v>
       </c>
@@ -4281,8 +4701,11 @@
       <c r="C131">
         <v>8</v>
       </c>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D131" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>97</v>
       </c>
@@ -4292,8 +4715,11 @@
       <c r="C132">
         <v>8</v>
       </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D132" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>98</v>
       </c>
@@ -4303,8 +4729,11 @@
       <c r="C133">
         <v>8</v>
       </c>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D133" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>99</v>
       </c>
@@ -4314,8 +4743,11 @@
       <c r="C134">
         <v>8</v>
       </c>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D134" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>100</v>
       </c>
@@ -4325,8 +4757,11 @@
       <c r="C135">
         <v>8</v>
       </c>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D135" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>100</v>
       </c>
@@ -4336,8 +4771,11 @@
       <c r="C136">
         <v>8</v>
       </c>
-    </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D136" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>100</v>
       </c>
@@ -4347,8 +4785,11 @@
       <c r="C137">
         <v>8</v>
       </c>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D137" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>100</v>
       </c>
@@ -4358,8 +4799,11 @@
       <c r="C138">
         <v>8</v>
       </c>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D138" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>100</v>
       </c>
@@ -4369,8 +4813,11 @@
       <c r="C139">
         <v>8</v>
       </c>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D139" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>101</v>
       </c>
@@ -4380,8 +4827,11 @@
       <c r="C140">
         <v>8</v>
       </c>
-    </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D140" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>101</v>
       </c>
@@ -4391,8 +4841,11 @@
       <c r="C141">
         <v>8</v>
       </c>
-    </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D141" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>102</v>
       </c>
@@ -4402,8 +4855,11 @@
       <c r="C142">
         <v>8</v>
       </c>
-    </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D142" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>103</v>
       </c>
@@ -4413,8 +4869,11 @@
       <c r="C143">
         <v>8</v>
       </c>
-    </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D143" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>103</v>
       </c>
@@ -4424,8 +4883,11 @@
       <c r="C144">
         <v>8</v>
       </c>
-    </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D144" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>104</v>
       </c>
@@ -4435,8 +4897,11 @@
       <c r="C145">
         <v>8</v>
       </c>
-    </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D145" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>237</v>
       </c>
@@ -4446,8 +4911,11 @@
       <c r="C146">
         <v>8</v>
       </c>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D146" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>105</v>
       </c>
@@ -4457,8 +4925,11 @@
       <c r="C147">
         <v>9</v>
       </c>
-    </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D147" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>106</v>
       </c>
@@ -4468,8 +4939,11 @@
       <c r="C148">
         <v>9</v>
       </c>
-    </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D148" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>106</v>
       </c>
@@ -4479,8 +4953,11 @@
       <c r="C149">
         <v>9</v>
       </c>
-    </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D149" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>107</v>
       </c>
@@ -4490,8 +4967,11 @@
       <c r="C150">
         <v>9</v>
       </c>
-    </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D150" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>108</v>
       </c>
@@ -4501,8 +4981,11 @@
       <c r="C151">
         <v>9</v>
       </c>
-    </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D151" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>109</v>
       </c>
@@ -4512,8 +4995,11 @@
       <c r="C152">
         <v>9</v>
       </c>
-    </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D152" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>110</v>
       </c>
@@ -4523,8 +5009,11 @@
       <c r="C153">
         <v>9</v>
       </c>
-    </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D153" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>111</v>
       </c>
@@ -4534,8 +5023,11 @@
       <c r="C154">
         <v>9</v>
       </c>
-    </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D154" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>112</v>
       </c>
@@ -4545,8 +5037,11 @@
       <c r="C155">
         <v>9</v>
       </c>
-    </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D155" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>113</v>
       </c>
@@ -4556,8 +5051,11 @@
       <c r="C156">
         <v>9</v>
       </c>
-    </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D156" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>114</v>
       </c>
@@ -4567,8 +5065,11 @@
       <c r="C157">
         <v>9</v>
       </c>
-    </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D157" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>115</v>
       </c>
@@ -4578,8 +5079,11 @@
       <c r="C158">
         <v>9</v>
       </c>
-    </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D158" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>116</v>
       </c>
@@ -4589,8 +5093,11 @@
       <c r="C159">
         <v>9</v>
       </c>
-    </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D159" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>117</v>
       </c>
@@ -4600,8 +5107,11 @@
       <c r="C160">
         <v>9</v>
       </c>
-    </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D160" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>118</v>
       </c>
@@ -4611,8 +5121,11 @@
       <c r="C161">
         <v>9</v>
       </c>
-    </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D161" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>119</v>
       </c>
@@ -4622,8 +5135,11 @@
       <c r="C162">
         <v>9</v>
       </c>
-    </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D162" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>120</v>
       </c>
@@ -4633,8 +5149,11 @@
       <c r="C163">
         <v>10</v>
       </c>
-    </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D163" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>121</v>
       </c>
@@ -4644,8 +5163,11 @@
       <c r="C164">
         <v>10</v>
       </c>
-    </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D164" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>122</v>
       </c>
@@ -4655,8 +5177,11 @@
       <c r="C165">
         <v>10</v>
       </c>
-    </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D165" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>123</v>
       </c>
@@ -4666,8 +5191,11 @@
       <c r="C166">
         <v>10</v>
       </c>
-    </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D166" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>124</v>
       </c>
@@ -4677,8 +5205,11 @@
       <c r="C167">
         <v>11</v>
       </c>
-    </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D167" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>125</v>
       </c>
@@ -4688,8 +5219,11 @@
       <c r="C168">
         <v>11</v>
       </c>
-    </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D168" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>126</v>
       </c>
@@ -4699,8 +5233,11 @@
       <c r="C169">
         <v>11</v>
       </c>
-    </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D169" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>127</v>
       </c>
@@ -4710,8 +5247,11 @@
       <c r="C170">
         <v>11</v>
       </c>
-    </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D170" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>128</v>
       </c>
@@ -4721,8 +5261,11 @@
       <c r="C171">
         <v>11</v>
       </c>
-    </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D171" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>129</v>
       </c>
@@ -4732,8 +5275,11 @@
       <c r="C172">
         <v>11</v>
       </c>
-    </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D172" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>130</v>
       </c>
@@ -4743,8 +5289,11 @@
       <c r="C173">
         <v>11</v>
       </c>
-    </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D173" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>131</v>
       </c>
@@ -4754,8 +5303,11 @@
       <c r="C174">
         <v>11</v>
       </c>
-    </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D174" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>132</v>
       </c>
@@ -4765,8 +5317,11 @@
       <c r="C175">
         <v>12</v>
       </c>
-    </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D175" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>133</v>
       </c>
@@ -4776,8 +5331,11 @@
       <c r="C176">
         <v>12</v>
       </c>
-    </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D176" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>134</v>
       </c>
@@ -4787,8 +5345,11 @@
       <c r="C177">
         <v>12</v>
       </c>
-    </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D177" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>135</v>
       </c>
@@ -4798,8 +5359,11 @@
       <c r="C178">
         <v>12</v>
       </c>
-    </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D178" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>136</v>
       </c>
@@ -4809,8 +5373,11 @@
       <c r="C179">
         <v>13</v>
       </c>
-    </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D179" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>137</v>
       </c>
@@ -4820,8 +5387,11 @@
       <c r="C180">
         <v>14</v>
       </c>
-    </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D180" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>138</v>
       </c>
@@ -4831,8 +5401,11 @@
       <c r="C181">
         <v>14</v>
       </c>
-    </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D181" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>139</v>
       </c>
@@ -4842,8 +5415,11 @@
       <c r="C182">
         <v>14</v>
       </c>
-    </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D182" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>140</v>
       </c>
@@ -4853,8 +5429,11 @@
       <c r="C183">
         <v>14</v>
       </c>
-    </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D183" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>141</v>
       </c>
@@ -4864,8 +5443,11 @@
       <c r="C184">
         <v>14</v>
       </c>
-    </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D184" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>142</v>
       </c>
@@ -4875,8 +5457,11 @@
       <c r="C185">
         <v>14</v>
       </c>
-    </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D185" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>143</v>
       </c>
@@ -4886,8 +5471,11 @@
       <c r="C186">
         <v>14</v>
       </c>
-    </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D186" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>144</v>
       </c>
@@ -4897,8 +5485,11 @@
       <c r="C187">
         <v>14</v>
       </c>
-    </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D187" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>145</v>
       </c>
@@ -4908,8 +5499,11 @@
       <c r="C188">
         <v>14</v>
       </c>
-    </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D188" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>146</v>
       </c>
@@ -4919,8 +5513,11 @@
       <c r="C189">
         <v>14</v>
       </c>
-    </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D189" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>147</v>
       </c>
@@ -4930,8 +5527,11 @@
       <c r="C190">
         <v>14</v>
       </c>
-    </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D190" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>148</v>
       </c>
@@ -4941,8 +5541,11 @@
       <c r="C191">
         <v>14</v>
       </c>
-    </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D191" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>149</v>
       </c>
@@ -4952,8 +5555,11 @@
       <c r="C192">
         <v>14</v>
       </c>
-    </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D192" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>150</v>
       </c>
@@ -4963,8 +5569,11 @@
       <c r="C193">
         <v>14</v>
       </c>
-    </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D193" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>151</v>
       </c>
@@ -4974,8 +5583,11 @@
       <c r="C194">
         <v>14</v>
       </c>
-    </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D194" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>152</v>
       </c>
@@ -4985,8 +5597,11 @@
       <c r="C195">
         <v>14</v>
       </c>
-    </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D195" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>153</v>
       </c>
@@ -4996,8 +5611,11 @@
       <c r="C196">
         <v>15</v>
       </c>
-    </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D196" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>154</v>
       </c>
@@ -5007,8 +5625,11 @@
       <c r="C197">
         <v>16</v>
       </c>
-    </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D197" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>155</v>
       </c>
@@ -5018,8 +5639,11 @@
       <c r="C198">
         <v>16</v>
       </c>
-    </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D198" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>156</v>
       </c>
@@ -5029,8 +5653,11 @@
       <c r="C199">
         <v>17</v>
       </c>
-    </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D199" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>157</v>
       </c>
@@ -5040,8 +5667,11 @@
       <c r="C200">
         <v>17</v>
       </c>
-    </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D200" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>158</v>
       </c>
@@ -5051,8 +5681,11 @@
       <c r="C201">
         <v>17</v>
       </c>
-    </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D201" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>159</v>
       </c>
@@ -5062,8 +5695,11 @@
       <c r="C202">
         <v>18</v>
       </c>
-    </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D202" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>159</v>
       </c>
@@ -5073,8 +5709,11 @@
       <c r="C203">
         <v>18</v>
       </c>
-    </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D203" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>159</v>
       </c>
@@ -5084,8 +5723,11 @@
       <c r="C204">
         <v>18</v>
       </c>
-    </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D204" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>159</v>
       </c>
@@ -5095,8 +5737,11 @@
       <c r="C205">
         <v>18</v>
       </c>
-    </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D205" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>159</v>
       </c>
@@ -5106,8 +5751,11 @@
       <c r="C206">
         <v>18</v>
       </c>
-    </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D206" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>159</v>
       </c>
@@ -5117,8 +5765,11 @@
       <c r="C207">
         <v>18</v>
       </c>
-    </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D207" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>159</v>
       </c>
@@ -5128,8 +5779,11 @@
       <c r="C208">
         <v>18</v>
       </c>
-    </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D208" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>159</v>
       </c>
@@ -5139,8 +5793,11 @@
       <c r="C209">
         <v>18</v>
       </c>
-    </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D209" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>159</v>
       </c>
@@ -5150,8 +5807,11 @@
       <c r="C210">
         <v>18</v>
       </c>
-    </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D210" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>159</v>
       </c>
@@ -5161,8 +5821,11 @@
       <c r="C211">
         <v>18</v>
       </c>
-    </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D211" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>159</v>
       </c>
@@ -5172,8 +5835,11 @@
       <c r="C212">
         <v>18</v>
       </c>
-    </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D212" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>159</v>
       </c>
@@ -5183,8 +5849,11 @@
       <c r="C213">
         <v>18</v>
       </c>
-    </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D213" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>159</v>
       </c>
@@ -5194,8 +5863,11 @@
       <c r="C214">
         <v>18</v>
       </c>
-    </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D214" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>159</v>
       </c>
@@ -5205,8 +5877,11 @@
       <c r="C215">
         <v>18</v>
       </c>
-    </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D215" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>159</v>
       </c>
@@ -5216,8 +5891,11 @@
       <c r="C216">
         <v>18</v>
       </c>
-    </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D216" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>159</v>
       </c>
@@ -5227,8 +5905,11 @@
       <c r="C217">
         <v>18</v>
       </c>
-    </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D217" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>159</v>
       </c>
@@ -5238,8 +5919,11 @@
       <c r="C218">
         <v>18</v>
       </c>
-    </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D218" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>159</v>
       </c>
@@ -5249,8 +5933,11 @@
       <c r="C219">
         <v>18</v>
       </c>
-    </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D219" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>159</v>
       </c>
@@ -5260,8 +5947,11 @@
       <c r="C220">
         <v>18</v>
       </c>
-    </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D220" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>159</v>
       </c>
@@ -5271,8 +5961,11 @@
       <c r="C221">
         <v>18</v>
       </c>
-    </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D221" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>159</v>
       </c>
@@ -5282,8 +5975,11 @@
       <c r="C222">
         <v>18</v>
       </c>
-    </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D222" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>159</v>
       </c>
@@ -5293,8 +5989,11 @@
       <c r="C223">
         <v>18</v>
       </c>
-    </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D223" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>159</v>
       </c>
@@ -5304,8 +6003,11 @@
       <c r="C224">
         <v>18</v>
       </c>
-    </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D224" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>159</v>
       </c>
@@ -5315,8 +6017,11 @@
       <c r="C225">
         <v>18</v>
       </c>
-    </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D225" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>159</v>
       </c>
@@ -5326,8 +6031,11 @@
       <c r="C226">
         <v>18</v>
       </c>
-    </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D226" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>159</v>
       </c>
@@ -5337,8 +6045,11 @@
       <c r="C227">
         <v>18</v>
       </c>
-    </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D227" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>159</v>
       </c>
@@ -5348,8 +6059,11 @@
       <c r="C228">
         <v>18</v>
       </c>
-    </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D228" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>160</v>
       </c>
@@ -5359,8 +6073,11 @@
       <c r="C229">
         <v>18</v>
       </c>
-    </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D229" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>161</v>
       </c>
@@ -5370,8 +6087,11 @@
       <c r="C230">
         <v>19</v>
       </c>
-    </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D230" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>162</v>
       </c>
@@ -5381,8 +6101,11 @@
       <c r="C231">
         <v>20</v>
       </c>
-    </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D231" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>163</v>
       </c>
@@ -5392,8 +6115,11 @@
       <c r="C232">
         <v>20</v>
       </c>
-    </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D232" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>163</v>
       </c>
@@ -5403,8 +6129,11 @@
       <c r="C233">
         <v>20</v>
       </c>
-    </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D233" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>164</v>
       </c>
@@ -5414,8 +6143,11 @@
       <c r="C234">
         <v>21</v>
       </c>
-    </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D234" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>165</v>
       </c>
@@ -5425,8 +6157,11 @@
       <c r="C235">
         <v>21</v>
       </c>
-    </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D235" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>165</v>
       </c>
@@ -5436,8 +6171,11 @@
       <c r="C236">
         <v>21</v>
       </c>
-    </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D236" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>165</v>
       </c>
@@ -5447,8 +6185,11 @@
       <c r="C237">
         <v>21</v>
       </c>
-    </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D237" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>166</v>
       </c>
@@ -5458,8 +6199,11 @@
       <c r="C238">
         <v>21</v>
       </c>
-    </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D238" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>165</v>
       </c>
@@ -5469,8 +6213,11 @@
       <c r="C239">
         <v>21</v>
       </c>
-    </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D239" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>167</v>
       </c>
@@ -5480,8 +6227,11 @@
       <c r="C240">
         <v>21</v>
       </c>
-    </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D240" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>168</v>
       </c>
@@ -5491,8 +6241,11 @@
       <c r="C241">
         <v>22</v>
       </c>
-    </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D241" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>169</v>
       </c>
@@ -5502,8 +6255,11 @@
       <c r="C242">
         <v>22</v>
       </c>
-    </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D242" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>170</v>
       </c>
@@ -5513,8 +6269,11 @@
       <c r="C243">
         <v>22</v>
       </c>
-    </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D243" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>170</v>
       </c>
@@ -5524,8 +6283,11 @@
       <c r="C244">
         <v>22</v>
       </c>
-    </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D244" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>170</v>
       </c>
@@ -5535,8 +6297,11 @@
       <c r="C245">
         <v>22</v>
       </c>
-    </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D245" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>170</v>
       </c>
@@ -5546,8 +6311,11 @@
       <c r="C246">
         <v>22</v>
       </c>
-    </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D246" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>170</v>
       </c>
@@ -5557,8 +6325,11 @@
       <c r="C247">
         <v>22</v>
       </c>
-    </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D247" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>170</v>
       </c>
@@ -5568,8 +6339,11 @@
       <c r="C248">
         <v>22</v>
       </c>
-    </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D248" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>170</v>
       </c>
@@ -5579,8 +6353,11 @@
       <c r="C249">
         <v>22</v>
       </c>
-    </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D249" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>170</v>
       </c>
@@ -5590,8 +6367,11 @@
       <c r="C250">
         <v>22</v>
       </c>
-    </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D250" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>170</v>
       </c>
@@ -5601,8 +6381,11 @@
       <c r="C251">
         <v>22</v>
       </c>
-    </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D251" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>170</v>
       </c>
@@ -5612,8 +6395,11 @@
       <c r="C252">
         <v>22</v>
       </c>
-    </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D252" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>170</v>
       </c>
@@ -5623,8 +6409,11 @@
       <c r="C253">
         <v>22</v>
       </c>
-    </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D253" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>170</v>
       </c>
@@ -5634,8 +6423,11 @@
       <c r="C254">
         <v>22</v>
       </c>
-    </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D254" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>170</v>
       </c>
@@ -5645,8 +6437,11 @@
       <c r="C255">
         <v>22</v>
       </c>
-    </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D255" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>170</v>
       </c>
@@ -5656,8 +6451,11 @@
       <c r="C256">
         <v>22</v>
       </c>
-    </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D256" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>171</v>
       </c>
@@ -5667,8 +6465,11 @@
       <c r="C257">
         <v>22</v>
       </c>
-    </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D257" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>172</v>
       </c>
@@ -5678,8 +6479,11 @@
       <c r="C258">
         <v>23</v>
       </c>
-    </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D258" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>173</v>
       </c>
@@ -5689,8 +6493,11 @@
       <c r="C259">
         <v>23</v>
       </c>
-    </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D259" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>174</v>
       </c>
@@ -5700,8 +6507,11 @@
       <c r="C260">
         <v>23</v>
       </c>
-    </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D260" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>175</v>
       </c>
@@ -5711,8 +6521,11 @@
       <c r="C261">
         <v>23</v>
       </c>
-    </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D261" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>175</v>
       </c>
@@ -5722,8 +6535,11 @@
       <c r="C262">
         <v>23</v>
       </c>
-    </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D262" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>175</v>
       </c>
@@ -5733,8 +6549,11 @@
       <c r="C263">
         <v>23</v>
       </c>
-    </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D263" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>176</v>
       </c>
@@ -5744,8 +6563,11 @@
       <c r="C264">
         <v>23</v>
       </c>
-    </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D264" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>177</v>
       </c>
@@ -5755,8 +6577,11 @@
       <c r="C265">
         <v>23</v>
       </c>
-    </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D265" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>178</v>
       </c>
@@ -5766,8 +6591,11 @@
       <c r="C266">
         <v>24</v>
       </c>
-    </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D266" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>179</v>
       </c>
@@ -5777,8 +6605,11 @@
       <c r="C267">
         <v>24</v>
       </c>
-    </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D267" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>180</v>
       </c>
@@ -5788,8 +6619,11 @@
       <c r="C268">
         <v>24</v>
       </c>
-    </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D268" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>181</v>
       </c>
@@ -5799,8 +6633,11 @@
       <c r="C269">
         <v>24</v>
       </c>
-    </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D269" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>182</v>
       </c>
@@ -5810,8 +6647,11 @@
       <c r="C270">
         <v>24</v>
       </c>
-    </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D270" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>183</v>
       </c>
@@ -5821,8 +6661,11 @@
       <c r="C271">
         <v>24</v>
       </c>
-    </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D271" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>184</v>
       </c>
@@ -5832,8 +6675,11 @@
       <c r="C272">
         <v>25</v>
       </c>
-    </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D272" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>185</v>
       </c>
@@ -5843,8 +6689,11 @@
       <c r="C273">
         <v>25</v>
       </c>
-    </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D273" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>186</v>
       </c>
@@ -5854,8 +6703,11 @@
       <c r="C274">
         <v>26</v>
       </c>
-    </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D274" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>187</v>
       </c>
@@ -5865,8 +6717,11 @@
       <c r="C275">
         <v>26</v>
       </c>
-    </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D275" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>188</v>
       </c>
@@ -5876,8 +6731,11 @@
       <c r="C276">
         <v>26</v>
       </c>
-    </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D276" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>189</v>
       </c>
@@ -5887,8 +6745,11 @@
       <c r="C277">
         <v>26</v>
       </c>
-    </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D277" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>190</v>
       </c>
@@ -5898,8 +6759,11 @@
       <c r="C278">
         <v>26</v>
       </c>
-    </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D278" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>191</v>
       </c>
@@ -5909,8 +6773,11 @@
       <c r="C279">
         <v>26</v>
       </c>
-    </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D279" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>192</v>
       </c>
@@ -5920,8 +6787,11 @@
       <c r="C280">
         <v>26</v>
       </c>
-    </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D280" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>193</v>
       </c>
@@ -5931,8 +6801,11 @@
       <c r="C281">
         <v>26</v>
       </c>
-    </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D281" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>194</v>
       </c>
@@ -5942,8 +6815,11 @@
       <c r="C282">
         <v>26</v>
       </c>
-    </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D282" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>195</v>
       </c>
@@ -5953,8 +6829,11 @@
       <c r="C283">
         <v>26</v>
       </c>
-    </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D283" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>196</v>
       </c>
@@ -5964,8 +6843,11 @@
       <c r="C284">
         <v>26</v>
       </c>
-    </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D284" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>197</v>
       </c>
@@ -5975,8 +6857,11 @@
       <c r="C285">
         <v>26</v>
       </c>
-    </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D285" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>198</v>
       </c>
@@ -5986,8 +6871,11 @@
       <c r="C286">
         <v>26</v>
       </c>
-    </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D286" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>199</v>
       </c>
@@ -5997,8 +6885,11 @@
       <c r="C287">
         <v>26</v>
       </c>
-    </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D287" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>200</v>
       </c>
@@ -6008,8 +6899,11 @@
       <c r="C288">
         <v>26</v>
       </c>
-    </row>
-    <row r="289" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D288" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>201</v>
       </c>
@@ -6019,8 +6913,11 @@
       <c r="C289">
         <v>26</v>
       </c>
-    </row>
-    <row r="290" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D289" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>202</v>
       </c>
@@ -6030,8 +6927,11 @@
       <c r="C290">
         <v>26</v>
       </c>
-    </row>
-    <row r="291" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D290" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>203</v>
       </c>
@@ -6041,8 +6941,11 @@
       <c r="C291">
         <v>26</v>
       </c>
-    </row>
-    <row r="292" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D291" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>204</v>
       </c>
@@ -6052,8 +6955,11 @@
       <c r="C292">
         <v>26</v>
       </c>
-    </row>
-    <row r="293" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D292" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>205</v>
       </c>
@@ -6063,8 +6969,11 @@
       <c r="C293">
         <v>26</v>
       </c>
-    </row>
-    <row r="294" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D293" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>206</v>
       </c>
@@ -6074,8 +6983,11 @@
       <c r="C294">
         <v>26</v>
       </c>
-    </row>
-    <row r="295" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D294" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="295" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>207</v>
       </c>
@@ -6085,8 +6997,11 @@
       <c r="C295">
         <v>26</v>
       </c>
-    </row>
-    <row r="296" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D295" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="296" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>208</v>
       </c>
@@ -6096,8 +7011,11 @@
       <c r="C296">
         <v>26</v>
       </c>
-    </row>
-    <row r="297" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D296" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>209</v>
       </c>
@@ -6107,8 +7025,11 @@
       <c r="C297">
         <v>26</v>
       </c>
-    </row>
-    <row r="298" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D297" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>210</v>
       </c>
@@ -6118,8 +7039,11 @@
       <c r="C298">
         <v>26</v>
       </c>
-    </row>
-    <row r="299" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D298" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>211</v>
       </c>
@@ -6129,8 +7053,11 @@
       <c r="C299">
         <v>26</v>
       </c>
-    </row>
-    <row r="300" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D299" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="300" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>212</v>
       </c>
@@ -6140,8 +7067,11 @@
       <c r="C300">
         <v>26</v>
       </c>
-    </row>
-    <row r="301" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D300" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="301" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>213</v>
       </c>
@@ -6151,8 +7081,11 @@
       <c r="C301">
         <v>26</v>
       </c>
-    </row>
-    <row r="302" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D301" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="302" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>214</v>
       </c>
@@ -6162,8 +7095,11 @@
       <c r="C302">
         <v>26</v>
       </c>
-    </row>
-    <row r="303" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D302" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="303" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>215</v>
       </c>
@@ -6173,8 +7109,11 @@
       <c r="C303">
         <v>27</v>
       </c>
-    </row>
-    <row r="304" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D303" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="304" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>216</v>
       </c>
@@ -6184,8 +7123,11 @@
       <c r="C304">
         <v>27</v>
       </c>
-    </row>
-    <row r="305" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D304" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="305" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>217</v>
       </c>
@@ -6195,8 +7137,11 @@
       <c r="C305">
         <v>27</v>
       </c>
-    </row>
-    <row r="306" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D305" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="306" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>218</v>
       </c>
@@ -6206,8 +7151,11 @@
       <c r="C306">
         <v>27</v>
       </c>
-    </row>
-    <row r="307" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D306" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="307" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>219</v>
       </c>
@@ -6217,8 +7165,11 @@
       <c r="C307">
         <v>27</v>
       </c>
-    </row>
-    <row r="308" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D307" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="308" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>219</v>
       </c>
@@ -6228,8 +7179,11 @@
       <c r="C308">
         <v>27</v>
       </c>
-    </row>
-    <row r="309" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D308" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="309" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>219</v>
       </c>
@@ -6239,8 +7193,11 @@
       <c r="C309">
         <v>27</v>
       </c>
-    </row>
-    <row r="310" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D309" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="310" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>219</v>
       </c>
@@ -6250,8 +7207,11 @@
       <c r="C310">
         <v>27</v>
       </c>
-    </row>
-    <row r="311" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D310" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="311" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>220</v>
       </c>
@@ -6261,8 +7221,11 @@
       <c r="C311">
         <v>27</v>
       </c>
-    </row>
-    <row r="312" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D311" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="312" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>221</v>
       </c>
@@ -6272,8 +7235,11 @@
       <c r="C312">
         <v>27</v>
       </c>
-    </row>
-    <row r="313" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D312" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="313" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>222</v>
       </c>
@@ -6283,8 +7249,11 @@
       <c r="C313">
         <v>28</v>
       </c>
-    </row>
-    <row r="314" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D313" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="314" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>223</v>
       </c>
@@ -6294,8 +7263,11 @@
       <c r="C314">
         <v>29</v>
       </c>
-    </row>
-    <row r="315" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D314" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="315" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>224</v>
       </c>
@@ -6305,8 +7277,11 @@
       <c r="C315">
         <v>30</v>
       </c>
-    </row>
-    <row r="316" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D315" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="316" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>73</v>
       </c>
@@ -6316,8 +7291,11 @@
       <c r="C316">
         <v>30</v>
       </c>
-    </row>
-    <row r="317" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D316" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="317" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>225</v>
       </c>
@@ -6327,8 +7305,11 @@
       <c r="C317">
         <v>31</v>
       </c>
-    </row>
-    <row r="318" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D317" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="318" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>226</v>
       </c>
@@ -6338,8 +7319,11 @@
       <c r="C318">
         <v>32</v>
       </c>
-    </row>
-    <row r="319" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D318" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="319" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>227</v>
       </c>
@@ -6349,8 +7333,11 @@
       <c r="C319">
         <v>33</v>
       </c>
-    </row>
-    <row r="320" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D319" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="320" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>228</v>
       </c>
@@ -6360,8 +7347,11 @@
       <c r="C320">
         <v>33</v>
       </c>
-    </row>
-    <row r="321" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D320" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="321" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>229</v>
       </c>
@@ -6371,8 +7361,11 @@
       <c r="C321">
         <v>34</v>
       </c>
-    </row>
-    <row r="322" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D321" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="322" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>230</v>
       </c>
@@ -6382,8 +7375,11 @@
       <c r="C322">
         <v>35</v>
       </c>
-    </row>
-    <row r="323" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D322" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="323" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>231</v>
       </c>
@@ -6393,6 +7389,2040 @@
       <c r="C323">
         <v>36</v>
       </c>
+      <c r="D323" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="324" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D324" s="1"/>
+    </row>
+    <row r="325" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D325" s="1"/>
+    </row>
+    <row r="326" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D326" s="1"/>
+    </row>
+    <row r="327" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D327" s="1"/>
+    </row>
+    <row r="328" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D328" s="1"/>
+    </row>
+    <row r="329" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D329" s="1"/>
+    </row>
+    <row r="330" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D330" s="1"/>
+    </row>
+    <row r="331" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D331" s="1"/>
+    </row>
+    <row r="332" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D332" s="1"/>
+    </row>
+    <row r="333" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D333" s="1"/>
+    </row>
+    <row r="334" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D334" s="1"/>
+    </row>
+    <row r="335" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D335" s="1"/>
+    </row>
+    <row r="336" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D336" s="1"/>
+    </row>
+    <row r="337" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D337" s="1"/>
+    </row>
+    <row r="338" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D338" s="1"/>
+    </row>
+    <row r="339" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D339" s="1"/>
+    </row>
+    <row r="340" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D340" s="1"/>
+    </row>
+    <row r="341" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D341" s="1"/>
+    </row>
+    <row r="342" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D342" s="1"/>
+    </row>
+    <row r="343" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D343" s="1"/>
+    </row>
+    <row r="344" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D344" s="1"/>
+    </row>
+    <row r="345" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D345" s="1"/>
+    </row>
+    <row r="346" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D346" s="1"/>
+    </row>
+    <row r="347" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D347" s="1"/>
+    </row>
+    <row r="348" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D348" s="1"/>
+    </row>
+    <row r="349" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D349" s="1"/>
+    </row>
+    <row r="350" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D350" s="1"/>
+    </row>
+    <row r="351" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D351" s="1"/>
+    </row>
+    <row r="352" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D352" s="1"/>
+    </row>
+    <row r="353" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D353" s="1"/>
+    </row>
+    <row r="354" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D354" s="1"/>
+    </row>
+    <row r="355" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D355" s="1"/>
+    </row>
+    <row r="356" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D356" s="1"/>
+    </row>
+    <row r="357" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D357" s="1"/>
+    </row>
+    <row r="358" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D358" s="1"/>
+    </row>
+    <row r="359" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D359" s="1"/>
+    </row>
+    <row r="360" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D360" s="1"/>
+    </row>
+    <row r="361" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D361" s="1"/>
+    </row>
+    <row r="362" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D362" s="1"/>
+    </row>
+    <row r="363" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D363" s="1"/>
+    </row>
+    <row r="364" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D364" s="1"/>
+    </row>
+    <row r="365" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D365" s="1"/>
+    </row>
+    <row r="366" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D366" s="1"/>
+    </row>
+    <row r="367" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D367" s="1"/>
+    </row>
+    <row r="368" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D368" s="1"/>
+    </row>
+    <row r="369" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D369" s="1"/>
+    </row>
+    <row r="370" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D370" s="1"/>
+    </row>
+    <row r="371" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D371" s="1"/>
+    </row>
+    <row r="372" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D372" s="1"/>
+    </row>
+    <row r="373" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D373" s="1"/>
+    </row>
+    <row r="374" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D374" s="1"/>
+    </row>
+    <row r="375" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D375" s="1"/>
+    </row>
+    <row r="376" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D376" s="1"/>
+    </row>
+    <row r="377" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D377" s="1"/>
+    </row>
+    <row r="378" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D378" s="1"/>
+    </row>
+    <row r="379" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D379" s="1"/>
+    </row>
+    <row r="380" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D380" s="1"/>
+    </row>
+    <row r="381" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D381" s="1"/>
+    </row>
+    <row r="382" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D382" s="1"/>
+    </row>
+    <row r="383" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D383" s="1"/>
+    </row>
+    <row r="384" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D384" s="1"/>
+    </row>
+    <row r="385" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D385" s="1"/>
+    </row>
+    <row r="386" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D386" s="1"/>
+    </row>
+    <row r="387" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D387" s="1"/>
+    </row>
+    <row r="388" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D388" s="1"/>
+    </row>
+    <row r="389" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D389" s="1"/>
+    </row>
+    <row r="390" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D390" s="1"/>
+    </row>
+    <row r="391" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D391" s="1"/>
+    </row>
+    <row r="392" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D392" s="1"/>
+    </row>
+    <row r="393" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D393" s="1"/>
+    </row>
+    <row r="394" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D394" s="1"/>
+    </row>
+    <row r="395" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D395" s="1"/>
+    </row>
+    <row r="396" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D396" s="1"/>
+    </row>
+    <row r="397" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D397" s="1"/>
+    </row>
+    <row r="398" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D398" s="1"/>
+    </row>
+    <row r="399" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D399" s="1"/>
+    </row>
+    <row r="400" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D400" s="1"/>
+    </row>
+    <row r="401" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D401" s="1"/>
+    </row>
+    <row r="402" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D402" s="1"/>
+    </row>
+    <row r="403" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D403" s="1"/>
+    </row>
+    <row r="404" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D404" s="1"/>
+    </row>
+    <row r="405" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D405" s="1"/>
+    </row>
+    <row r="406" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D406" s="1"/>
+    </row>
+    <row r="407" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D407" s="1"/>
+    </row>
+    <row r="408" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D408" s="1"/>
+    </row>
+    <row r="409" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D409" s="1"/>
+    </row>
+    <row r="410" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D410" s="1"/>
+    </row>
+    <row r="411" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D411" s="1"/>
+    </row>
+    <row r="412" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D412" s="1"/>
+    </row>
+    <row r="413" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D413" s="1"/>
+    </row>
+    <row r="414" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D414" s="1"/>
+    </row>
+    <row r="415" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D415" s="1"/>
+    </row>
+    <row r="416" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D416" s="1"/>
+    </row>
+    <row r="417" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D417" s="1"/>
+    </row>
+    <row r="418" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D418" s="1"/>
+    </row>
+    <row r="419" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D419" s="1"/>
+    </row>
+    <row r="420" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D420" s="1"/>
+    </row>
+    <row r="421" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D421" s="1"/>
+    </row>
+    <row r="422" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D422" s="1"/>
+    </row>
+    <row r="423" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D423" s="1"/>
+    </row>
+    <row r="424" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D424" s="1"/>
+    </row>
+    <row r="425" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D425" s="1"/>
+    </row>
+    <row r="426" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D426" s="1"/>
+    </row>
+    <row r="427" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D427" s="1"/>
+    </row>
+    <row r="428" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D428" s="1"/>
+    </row>
+    <row r="429" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D429" s="1"/>
+    </row>
+    <row r="430" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D430" s="1"/>
+    </row>
+    <row r="431" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D431" s="1"/>
+    </row>
+    <row r="432" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D432" s="1"/>
+    </row>
+    <row r="433" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D433" s="1"/>
+    </row>
+    <row r="434" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D434" s="1"/>
+    </row>
+    <row r="435" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D435" s="1"/>
+    </row>
+    <row r="436" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D436" s="1"/>
+    </row>
+    <row r="437" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D437" s="1"/>
+    </row>
+    <row r="438" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D438" s="1"/>
+    </row>
+    <row r="439" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D439" s="1"/>
+    </row>
+    <row r="440" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D440" s="1"/>
+    </row>
+    <row r="441" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D441" s="1"/>
+    </row>
+    <row r="442" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D442" s="1"/>
+    </row>
+    <row r="443" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D443" s="1"/>
+    </row>
+    <row r="444" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D444" s="1"/>
+    </row>
+    <row r="445" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D445" s="1"/>
+    </row>
+    <row r="446" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D446" s="1"/>
+    </row>
+    <row r="447" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D447" s="1"/>
+    </row>
+    <row r="448" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D448" s="1"/>
+    </row>
+    <row r="449" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D449" s="1"/>
+    </row>
+    <row r="450" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D450" s="1"/>
+    </row>
+    <row r="451" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D451" s="1"/>
+    </row>
+    <row r="452" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D452" s="1"/>
+    </row>
+    <row r="453" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D453" s="1"/>
+    </row>
+    <row r="454" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D454" s="1"/>
+    </row>
+    <row r="455" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D455" s="1"/>
+    </row>
+    <row r="456" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D456" s="1"/>
+    </row>
+    <row r="457" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D457" s="1"/>
+    </row>
+    <row r="458" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D458" s="1"/>
+    </row>
+    <row r="459" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D459" s="1"/>
+    </row>
+    <row r="460" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D460" s="1"/>
+    </row>
+    <row r="461" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D461" s="1"/>
+    </row>
+    <row r="462" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D462" s="1"/>
+    </row>
+    <row r="463" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D463" s="1"/>
+    </row>
+    <row r="464" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D464" s="1"/>
+    </row>
+    <row r="465" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D465" s="1"/>
+    </row>
+    <row r="466" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D466" s="1"/>
+    </row>
+    <row r="467" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D467" s="1"/>
+    </row>
+    <row r="468" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D468" s="1"/>
+    </row>
+    <row r="469" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D469" s="1"/>
+    </row>
+    <row r="470" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D470" s="1"/>
+    </row>
+    <row r="471" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D471" s="1"/>
+    </row>
+    <row r="472" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D472" s="1"/>
+    </row>
+    <row r="473" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D473" s="1"/>
+    </row>
+    <row r="474" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D474" s="1"/>
+    </row>
+    <row r="475" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D475" s="1"/>
+    </row>
+    <row r="476" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D476" s="1"/>
+    </row>
+    <row r="477" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D477" s="1"/>
+    </row>
+    <row r="478" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D478" s="1"/>
+    </row>
+    <row r="479" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D479" s="1"/>
+    </row>
+    <row r="480" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D480" s="1"/>
+    </row>
+    <row r="481" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D481" s="1"/>
+    </row>
+    <row r="482" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D482" s="1"/>
+    </row>
+    <row r="483" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D483" s="1"/>
+    </row>
+    <row r="484" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D484" s="1"/>
+    </row>
+    <row r="485" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D485" s="1"/>
+    </row>
+    <row r="486" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D486" s="1"/>
+    </row>
+    <row r="487" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D487" s="1"/>
+    </row>
+    <row r="488" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D488" s="1"/>
+    </row>
+    <row r="489" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D489" s="1"/>
+    </row>
+    <row r="490" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D490" s="1"/>
+    </row>
+    <row r="491" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D491" s="1"/>
+    </row>
+    <row r="492" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D492" s="1"/>
+    </row>
+    <row r="493" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D493" s="1"/>
+    </row>
+    <row r="494" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D494" s="1"/>
+    </row>
+    <row r="495" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D495" s="1"/>
+    </row>
+    <row r="496" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D496" s="1"/>
+    </row>
+    <row r="497" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D497" s="1"/>
+    </row>
+    <row r="498" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D498" s="1"/>
+    </row>
+    <row r="499" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D499" s="1"/>
+    </row>
+    <row r="500" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D500" s="1"/>
+    </row>
+    <row r="501" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D501" s="1"/>
+    </row>
+    <row r="502" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D502" s="1"/>
+    </row>
+    <row r="503" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D503" s="1"/>
+    </row>
+    <row r="504" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D504" s="1"/>
+    </row>
+    <row r="505" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D505" s="1"/>
+    </row>
+    <row r="506" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D506" s="1"/>
+    </row>
+    <row r="507" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D507" s="1"/>
+    </row>
+    <row r="508" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D508" s="1"/>
+    </row>
+    <row r="509" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D509" s="1"/>
+    </row>
+    <row r="510" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D510" s="1"/>
+    </row>
+    <row r="511" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D511" s="1"/>
+    </row>
+    <row r="512" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D512" s="1"/>
+    </row>
+    <row r="513" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D513" s="1"/>
+    </row>
+    <row r="514" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D514" s="1"/>
+    </row>
+    <row r="515" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D515" s="1"/>
+    </row>
+    <row r="516" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D516" s="1"/>
+    </row>
+    <row r="517" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D517" s="1"/>
+    </row>
+    <row r="518" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D518" s="1"/>
+    </row>
+    <row r="519" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D519" s="1"/>
+    </row>
+    <row r="520" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D520" s="1"/>
+    </row>
+    <row r="521" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D521" s="1"/>
+    </row>
+    <row r="522" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D522" s="1"/>
+    </row>
+    <row r="523" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D523" s="1"/>
+    </row>
+    <row r="524" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D524" s="1"/>
+    </row>
+    <row r="525" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D525" s="1"/>
+    </row>
+    <row r="526" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D526" s="1"/>
+    </row>
+    <row r="527" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D527" s="1"/>
+    </row>
+    <row r="528" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D528" s="1"/>
+    </row>
+    <row r="529" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D529" s="1"/>
+    </row>
+    <row r="530" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D530" s="1"/>
+    </row>
+    <row r="531" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D531" s="1"/>
+    </row>
+    <row r="532" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D532" s="1"/>
+    </row>
+    <row r="533" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D533" s="1"/>
+    </row>
+    <row r="534" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D534" s="1"/>
+    </row>
+    <row r="535" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D535" s="1"/>
+    </row>
+    <row r="536" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D536" s="1"/>
+    </row>
+    <row r="537" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D537" s="1"/>
+    </row>
+    <row r="538" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D538" s="1"/>
+    </row>
+    <row r="539" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D539" s="1"/>
+    </row>
+    <row r="540" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D540" s="1"/>
+    </row>
+    <row r="541" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D541" s="1"/>
+    </row>
+    <row r="542" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D542" s="1"/>
+    </row>
+    <row r="543" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D543" s="1"/>
+    </row>
+    <row r="544" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D544" s="1"/>
+    </row>
+    <row r="545" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D545" s="1"/>
+    </row>
+    <row r="546" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D546" s="1"/>
+    </row>
+    <row r="547" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D547" s="1"/>
+    </row>
+    <row r="548" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D548" s="1"/>
+    </row>
+    <row r="549" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D549" s="1"/>
+    </row>
+    <row r="550" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D550" s="1"/>
+    </row>
+    <row r="551" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D551" s="1"/>
+    </row>
+    <row r="552" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D552" s="1"/>
+    </row>
+    <row r="553" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D553" s="1"/>
+    </row>
+    <row r="554" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D554" s="1"/>
+    </row>
+    <row r="555" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D555" s="1"/>
+    </row>
+    <row r="556" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D556" s="1"/>
+    </row>
+    <row r="557" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D557" s="1"/>
+    </row>
+    <row r="558" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D558" s="1"/>
+    </row>
+    <row r="559" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D559" s="1"/>
+    </row>
+    <row r="560" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D560" s="1"/>
+    </row>
+    <row r="561" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D561" s="1"/>
+    </row>
+    <row r="562" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D562" s="1"/>
+    </row>
+    <row r="563" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D563" s="1"/>
+    </row>
+    <row r="564" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D564" s="1"/>
+    </row>
+    <row r="565" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D565" s="1"/>
+    </row>
+    <row r="566" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D566" s="1"/>
+    </row>
+    <row r="567" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D567" s="1"/>
+    </row>
+    <row r="568" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D568" s="1"/>
+    </row>
+    <row r="569" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D569" s="1"/>
+    </row>
+    <row r="570" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D570" s="1"/>
+    </row>
+    <row r="571" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D571" s="1"/>
+    </row>
+    <row r="572" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D572" s="1"/>
+    </row>
+    <row r="573" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D573" s="1"/>
+    </row>
+    <row r="574" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D574" s="1"/>
+    </row>
+    <row r="575" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D575" s="1"/>
+    </row>
+    <row r="576" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D576" s="1"/>
+    </row>
+    <row r="577" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D577" s="1"/>
+    </row>
+    <row r="578" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D578" s="1"/>
+    </row>
+    <row r="579" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D579" s="1"/>
+    </row>
+    <row r="580" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D580" s="1"/>
+    </row>
+    <row r="581" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D581" s="1"/>
+    </row>
+    <row r="582" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D582" s="1"/>
+    </row>
+    <row r="583" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D583" s="1"/>
+    </row>
+    <row r="584" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D584" s="1"/>
+    </row>
+    <row r="585" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D585" s="1"/>
+    </row>
+    <row r="586" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D586" s="1"/>
+    </row>
+    <row r="587" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D587" s="1"/>
+    </row>
+    <row r="588" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D588" s="1"/>
+    </row>
+    <row r="589" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D589" s="1"/>
+    </row>
+    <row r="590" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D590" s="1"/>
+    </row>
+    <row r="591" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D591" s="1"/>
+    </row>
+    <row r="592" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D592" s="1"/>
+    </row>
+    <row r="593" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D593" s="1"/>
+    </row>
+    <row r="594" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D594" s="1"/>
+    </row>
+    <row r="595" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D595" s="1"/>
+    </row>
+    <row r="596" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D596" s="1"/>
+    </row>
+    <row r="597" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D597" s="1"/>
+    </row>
+    <row r="598" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D598" s="1"/>
+    </row>
+    <row r="599" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D599" s="1"/>
+    </row>
+    <row r="600" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D600" s="1"/>
+    </row>
+    <row r="601" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D601" s="1"/>
+    </row>
+    <row r="602" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D602" s="1"/>
+    </row>
+    <row r="603" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D603" s="1"/>
+    </row>
+    <row r="604" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D604" s="1"/>
+    </row>
+    <row r="605" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D605" s="1"/>
+    </row>
+    <row r="606" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D606" s="1"/>
+    </row>
+    <row r="607" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D607" s="1"/>
+    </row>
+    <row r="608" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D608" s="1"/>
+    </row>
+    <row r="609" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D609" s="1"/>
+    </row>
+    <row r="610" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D610" s="1"/>
+    </row>
+    <row r="611" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D611" s="1"/>
+    </row>
+    <row r="612" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D612" s="1"/>
+    </row>
+    <row r="613" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D613" s="1"/>
+    </row>
+    <row r="614" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D614" s="1"/>
+    </row>
+    <row r="615" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D615" s="1"/>
+    </row>
+    <row r="616" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D616" s="1"/>
+    </row>
+    <row r="617" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D617" s="1"/>
+    </row>
+    <row r="618" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D618" s="1"/>
+    </row>
+    <row r="619" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D619" s="1"/>
+    </row>
+    <row r="620" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D620" s="1"/>
+    </row>
+    <row r="621" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D621" s="1"/>
+    </row>
+    <row r="622" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D622" s="1"/>
+    </row>
+    <row r="623" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D623" s="1"/>
+    </row>
+    <row r="624" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D624" s="1"/>
+    </row>
+    <row r="625" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D625" s="1"/>
+    </row>
+    <row r="626" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D626" s="1"/>
+    </row>
+    <row r="627" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D627" s="1"/>
+    </row>
+    <row r="628" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D628" s="1"/>
+    </row>
+    <row r="629" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D629" s="1"/>
+    </row>
+    <row r="630" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D630" s="1"/>
+    </row>
+    <row r="631" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D631" s="1"/>
+    </row>
+    <row r="632" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D632" s="1"/>
+    </row>
+    <row r="633" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D633" s="1"/>
+    </row>
+    <row r="634" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D634" s="1"/>
+    </row>
+    <row r="635" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D635" s="1"/>
+    </row>
+    <row r="636" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D636" s="1"/>
+    </row>
+    <row r="637" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D637" s="1"/>
+    </row>
+    <row r="638" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D638" s="1"/>
+    </row>
+    <row r="639" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D639" s="1"/>
+    </row>
+    <row r="640" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D640" s="1"/>
+    </row>
+    <row r="641" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D641" s="1"/>
+    </row>
+    <row r="642" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D642" s="1"/>
+    </row>
+    <row r="643" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D643" s="1"/>
+    </row>
+    <row r="644" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D644" s="1"/>
+    </row>
+    <row r="645" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D645" s="1"/>
+    </row>
+    <row r="646" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D646" s="1"/>
+    </row>
+    <row r="647" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D647" s="1"/>
+    </row>
+    <row r="648" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D648" s="1"/>
+    </row>
+    <row r="649" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D649" s="1"/>
+    </row>
+    <row r="650" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D650" s="1"/>
+    </row>
+    <row r="651" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D651" s="1"/>
+    </row>
+    <row r="652" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D652" s="1"/>
+    </row>
+    <row r="653" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D653" s="1"/>
+    </row>
+    <row r="654" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D654" s="1"/>
+    </row>
+    <row r="655" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D655" s="1"/>
+    </row>
+    <row r="656" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D656" s="1"/>
+    </row>
+    <row r="657" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D657" s="1"/>
+    </row>
+    <row r="658" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D658" s="1"/>
+    </row>
+    <row r="659" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D659" s="1"/>
+    </row>
+    <row r="660" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D660" s="1"/>
+    </row>
+    <row r="661" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D661" s="1"/>
+    </row>
+    <row r="662" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D662" s="1"/>
+    </row>
+    <row r="663" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D663" s="1"/>
+    </row>
+    <row r="664" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D664" s="1"/>
+    </row>
+    <row r="665" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D665" s="1"/>
+    </row>
+    <row r="666" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D666" s="1"/>
+    </row>
+    <row r="667" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D667" s="1"/>
+    </row>
+    <row r="668" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D668" s="1"/>
+    </row>
+    <row r="669" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D669" s="1"/>
+    </row>
+    <row r="670" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D670" s="1"/>
+    </row>
+    <row r="671" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D671" s="1"/>
+    </row>
+    <row r="672" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D672" s="1"/>
+    </row>
+    <row r="673" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D673" s="1"/>
+    </row>
+    <row r="674" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D674" s="1"/>
+    </row>
+    <row r="675" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D675" s="1"/>
+    </row>
+    <row r="676" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D676" s="1"/>
+    </row>
+    <row r="677" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D677" s="1"/>
+    </row>
+    <row r="678" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D678" s="1"/>
+    </row>
+    <row r="679" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D679" s="1"/>
+    </row>
+    <row r="680" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D680" s="1"/>
+    </row>
+    <row r="681" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D681" s="1"/>
+    </row>
+    <row r="682" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D682" s="1"/>
+    </row>
+    <row r="683" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D683" s="1"/>
+    </row>
+    <row r="684" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D684" s="1"/>
+    </row>
+    <row r="685" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D685" s="1"/>
+    </row>
+    <row r="686" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D686" s="1"/>
+    </row>
+    <row r="687" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D687" s="1"/>
+    </row>
+    <row r="688" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D688" s="1"/>
+    </row>
+    <row r="689" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D689" s="1"/>
+    </row>
+    <row r="690" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D690" s="1"/>
+    </row>
+    <row r="691" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D691" s="1"/>
+    </row>
+    <row r="692" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D692" s="1"/>
+    </row>
+    <row r="693" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D693" s="1"/>
+    </row>
+    <row r="694" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D694" s="1"/>
+    </row>
+    <row r="695" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D695" s="1"/>
+    </row>
+    <row r="696" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D696" s="1"/>
+    </row>
+    <row r="697" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D697" s="1"/>
+    </row>
+    <row r="698" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D698" s="1"/>
+    </row>
+    <row r="699" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D699" s="1"/>
+    </row>
+    <row r="700" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D700" s="1"/>
+    </row>
+    <row r="701" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D701" s="1"/>
+    </row>
+    <row r="702" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D702" s="1"/>
+    </row>
+    <row r="703" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D703" s="1"/>
+    </row>
+    <row r="704" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D704" s="1"/>
+    </row>
+    <row r="705" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D705" s="1"/>
+    </row>
+    <row r="706" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D706" s="1"/>
+    </row>
+    <row r="707" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D707" s="1"/>
+    </row>
+    <row r="708" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D708" s="1"/>
+    </row>
+    <row r="709" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D709" s="1"/>
+    </row>
+    <row r="710" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D710" s="1"/>
+    </row>
+    <row r="711" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D711" s="1"/>
+    </row>
+    <row r="712" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D712" s="1"/>
+    </row>
+    <row r="713" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D713" s="1"/>
+    </row>
+    <row r="714" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D714" s="1"/>
+    </row>
+    <row r="715" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D715" s="1"/>
+    </row>
+    <row r="716" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D716" s="1"/>
+    </row>
+    <row r="717" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D717" s="1"/>
+    </row>
+    <row r="718" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D718" s="1"/>
+    </row>
+    <row r="719" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D719" s="1"/>
+    </row>
+    <row r="720" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D720" s="1"/>
+    </row>
+    <row r="721" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D721" s="1"/>
+    </row>
+    <row r="722" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D722" s="1"/>
+    </row>
+    <row r="723" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D723" s="1"/>
+    </row>
+    <row r="724" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D724" s="1"/>
+    </row>
+    <row r="725" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D725" s="1"/>
+    </row>
+    <row r="726" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D726" s="1"/>
+    </row>
+    <row r="727" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D727" s="1"/>
+    </row>
+    <row r="728" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D728" s="1"/>
+    </row>
+    <row r="729" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D729" s="1"/>
+    </row>
+    <row r="730" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D730" s="1"/>
+    </row>
+    <row r="731" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D731" s="1"/>
+    </row>
+    <row r="732" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D732" s="1"/>
+    </row>
+    <row r="733" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D733" s="1"/>
+    </row>
+    <row r="734" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D734" s="1"/>
+    </row>
+    <row r="735" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D735" s="1"/>
+    </row>
+    <row r="736" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D736" s="1"/>
+    </row>
+    <row r="737" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D737" s="1"/>
+    </row>
+    <row r="738" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D738" s="1"/>
+    </row>
+    <row r="739" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D739" s="1"/>
+    </row>
+    <row r="740" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D740" s="1"/>
+    </row>
+    <row r="741" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D741" s="1"/>
+    </row>
+    <row r="742" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D742" s="1"/>
+    </row>
+    <row r="743" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D743" s="1"/>
+    </row>
+    <row r="744" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D744" s="1"/>
+    </row>
+    <row r="745" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D745" s="1"/>
+    </row>
+    <row r="746" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D746" s="1"/>
+    </row>
+    <row r="747" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D747" s="1"/>
+    </row>
+    <row r="748" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D748" s="1"/>
+    </row>
+    <row r="749" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D749" s="1"/>
+    </row>
+    <row r="750" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D750" s="1"/>
+    </row>
+    <row r="751" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D751" s="1"/>
+    </row>
+    <row r="752" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D752" s="1"/>
+    </row>
+    <row r="753" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D753" s="1"/>
+    </row>
+    <row r="754" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D754" s="1"/>
+    </row>
+    <row r="755" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D755" s="1"/>
+    </row>
+    <row r="756" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D756" s="1"/>
+    </row>
+    <row r="757" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D757" s="1"/>
+    </row>
+    <row r="758" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D758" s="1"/>
+    </row>
+    <row r="759" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D759" s="1"/>
+    </row>
+    <row r="760" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D760" s="1"/>
+    </row>
+    <row r="761" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D761" s="1"/>
+    </row>
+    <row r="762" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D762" s="1"/>
+    </row>
+    <row r="763" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D763" s="1"/>
+    </row>
+    <row r="764" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D764" s="1"/>
+    </row>
+    <row r="765" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D765" s="1"/>
+    </row>
+    <row r="766" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D766" s="1"/>
+    </row>
+    <row r="767" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D767" s="1"/>
+    </row>
+    <row r="768" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D768" s="1"/>
+    </row>
+    <row r="769" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D769" s="1"/>
+    </row>
+    <row r="770" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D770" s="1"/>
+    </row>
+    <row r="771" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D771" s="1"/>
+    </row>
+    <row r="772" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D772" s="1"/>
+    </row>
+    <row r="773" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D773" s="1"/>
+    </row>
+    <row r="774" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D774" s="1"/>
+    </row>
+    <row r="775" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D775" s="1"/>
+    </row>
+    <row r="776" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D776" s="1"/>
+    </row>
+    <row r="777" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D777" s="1"/>
+    </row>
+    <row r="778" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D778" s="1"/>
+    </row>
+    <row r="779" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D779" s="1"/>
+    </row>
+    <row r="780" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D780" s="1"/>
+    </row>
+    <row r="781" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D781" s="1"/>
+    </row>
+    <row r="782" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D782" s="1"/>
+    </row>
+    <row r="783" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D783" s="1"/>
+    </row>
+    <row r="784" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D784" s="1"/>
+    </row>
+    <row r="785" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D785" s="1"/>
+    </row>
+    <row r="786" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D786" s="1"/>
+    </row>
+    <row r="787" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D787" s="1"/>
+    </row>
+    <row r="788" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D788" s="1"/>
+    </row>
+    <row r="789" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D789" s="1"/>
+    </row>
+    <row r="790" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D790" s="1"/>
+    </row>
+    <row r="791" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D791" s="1"/>
+    </row>
+    <row r="792" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D792" s="1"/>
+    </row>
+    <row r="793" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D793" s="1"/>
+    </row>
+    <row r="794" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D794" s="1"/>
+    </row>
+    <row r="795" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D795" s="1"/>
+    </row>
+    <row r="796" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D796" s="1"/>
+    </row>
+    <row r="797" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D797" s="1"/>
+    </row>
+    <row r="798" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D798" s="1"/>
+    </row>
+    <row r="799" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D799" s="1"/>
+    </row>
+    <row r="800" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D800" s="1"/>
+    </row>
+    <row r="801" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D801" s="1"/>
+    </row>
+    <row r="802" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D802" s="1"/>
+    </row>
+    <row r="803" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D803" s="1"/>
+    </row>
+    <row r="804" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D804" s="1"/>
+    </row>
+    <row r="805" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D805" s="1"/>
+    </row>
+    <row r="806" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D806" s="1"/>
+    </row>
+    <row r="807" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D807" s="1"/>
+    </row>
+    <row r="808" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D808" s="1"/>
+    </row>
+    <row r="809" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D809" s="1"/>
+    </row>
+    <row r="810" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D810" s="1"/>
+    </row>
+    <row r="811" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D811" s="1"/>
+    </row>
+    <row r="812" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D812" s="1"/>
+    </row>
+    <row r="813" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D813" s="1"/>
+    </row>
+    <row r="814" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D814" s="1"/>
+    </row>
+    <row r="815" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D815" s="1"/>
+    </row>
+    <row r="816" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D816" s="1"/>
+    </row>
+    <row r="817" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D817" s="1"/>
+    </row>
+    <row r="818" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D818" s="1"/>
+    </row>
+    <row r="819" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D819" s="1"/>
+    </row>
+    <row r="820" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D820" s="1"/>
+    </row>
+    <row r="821" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D821" s="1"/>
+    </row>
+    <row r="822" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D822" s="1"/>
+    </row>
+    <row r="823" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D823" s="1"/>
+    </row>
+    <row r="824" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D824" s="1"/>
+    </row>
+    <row r="825" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D825" s="1"/>
+    </row>
+    <row r="826" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D826" s="1"/>
+    </row>
+    <row r="827" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D827" s="1"/>
+    </row>
+    <row r="828" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D828" s="1"/>
+    </row>
+    <row r="829" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D829" s="1"/>
+    </row>
+    <row r="830" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D830" s="1"/>
+    </row>
+    <row r="831" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D831" s="1"/>
+    </row>
+    <row r="832" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D832" s="1"/>
+    </row>
+    <row r="833" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D833" s="1"/>
+    </row>
+    <row r="834" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D834" s="1"/>
+    </row>
+    <row r="835" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D835" s="1"/>
+    </row>
+    <row r="836" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D836" s="1"/>
+    </row>
+    <row r="837" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D837" s="1"/>
+    </row>
+    <row r="838" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D838" s="1"/>
+    </row>
+    <row r="839" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D839" s="1"/>
+    </row>
+    <row r="840" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D840" s="1"/>
+    </row>
+    <row r="841" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D841" s="1"/>
+    </row>
+    <row r="842" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D842" s="1"/>
+    </row>
+    <row r="843" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D843" s="1"/>
+    </row>
+    <row r="844" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D844" s="1"/>
+    </row>
+    <row r="845" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D845" s="1"/>
+    </row>
+    <row r="846" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D846" s="1"/>
+    </row>
+    <row r="847" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D847" s="1"/>
+    </row>
+    <row r="848" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D848" s="1"/>
+    </row>
+    <row r="849" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D849" s="1"/>
+    </row>
+    <row r="850" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D850" s="1"/>
+    </row>
+    <row r="851" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D851" s="1"/>
+    </row>
+    <row r="852" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D852" s="1"/>
+    </row>
+    <row r="853" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D853" s="1"/>
+    </row>
+    <row r="854" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D854" s="1"/>
+    </row>
+    <row r="855" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D855" s="1"/>
+    </row>
+    <row r="856" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D856" s="1"/>
+    </row>
+    <row r="857" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D857" s="1"/>
+    </row>
+    <row r="858" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D858" s="1"/>
+    </row>
+    <row r="859" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D859" s="1"/>
+    </row>
+    <row r="860" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D860" s="1"/>
+    </row>
+    <row r="861" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D861" s="1"/>
+    </row>
+    <row r="862" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D862" s="1"/>
+    </row>
+    <row r="863" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D863" s="1"/>
+    </row>
+    <row r="864" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D864" s="1"/>
+    </row>
+    <row r="865" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D865" s="1"/>
+    </row>
+    <row r="866" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D866" s="1"/>
+    </row>
+    <row r="867" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D867" s="1"/>
+    </row>
+    <row r="868" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D868" s="1"/>
+    </row>
+    <row r="869" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D869" s="1"/>
+    </row>
+    <row r="870" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D870" s="1"/>
+    </row>
+    <row r="871" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D871" s="1"/>
+    </row>
+    <row r="872" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D872" s="1"/>
+    </row>
+    <row r="873" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D873" s="1"/>
+    </row>
+    <row r="874" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D874" s="1"/>
+    </row>
+    <row r="875" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D875" s="1"/>
+    </row>
+    <row r="876" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D876" s="1"/>
+    </row>
+    <row r="877" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D877" s="1"/>
+    </row>
+    <row r="878" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D878" s="1"/>
+    </row>
+    <row r="879" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D879" s="1"/>
+    </row>
+    <row r="880" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D880" s="1"/>
+    </row>
+    <row r="881" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D881" s="1"/>
+    </row>
+    <row r="882" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D882" s="1"/>
+    </row>
+    <row r="883" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D883" s="1"/>
+    </row>
+    <row r="884" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D884" s="1"/>
+    </row>
+    <row r="885" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D885" s="1"/>
+    </row>
+    <row r="886" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D886" s="1"/>
+    </row>
+    <row r="887" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D887" s="1"/>
+    </row>
+    <row r="888" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D888" s="1"/>
+    </row>
+    <row r="889" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D889" s="1"/>
+    </row>
+    <row r="890" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D890" s="1"/>
+    </row>
+    <row r="891" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D891" s="1"/>
+    </row>
+    <row r="892" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D892" s="1"/>
+    </row>
+    <row r="893" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D893" s="1"/>
+    </row>
+    <row r="894" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D894" s="1"/>
+    </row>
+    <row r="895" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D895" s="1"/>
+    </row>
+    <row r="896" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D896" s="1"/>
+    </row>
+    <row r="897" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D897" s="1"/>
+    </row>
+    <row r="898" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D898" s="1"/>
+    </row>
+    <row r="899" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D899" s="1"/>
+    </row>
+    <row r="900" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D900" s="1"/>
+    </row>
+    <row r="901" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D901" s="1"/>
+    </row>
+    <row r="902" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D902" s="1"/>
+    </row>
+    <row r="903" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D903" s="1"/>
+    </row>
+    <row r="904" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D904" s="1"/>
+    </row>
+    <row r="905" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D905" s="1"/>
+    </row>
+    <row r="906" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D906" s="1"/>
+    </row>
+    <row r="907" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D907" s="1"/>
+    </row>
+    <row r="908" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D908" s="1"/>
+    </row>
+    <row r="909" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D909" s="1"/>
+    </row>
+    <row r="910" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D910" s="1"/>
+    </row>
+    <row r="911" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D911" s="1"/>
+    </row>
+    <row r="912" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D912" s="1"/>
+    </row>
+    <row r="913" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D913" s="1"/>
+    </row>
+    <row r="914" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D914" s="1"/>
+    </row>
+    <row r="915" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D915" s="1"/>
+    </row>
+    <row r="916" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D916" s="1"/>
+    </row>
+    <row r="917" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D917" s="1"/>
+    </row>
+    <row r="918" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D918" s="1"/>
+    </row>
+    <row r="919" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D919" s="1"/>
+    </row>
+    <row r="920" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D920" s="1"/>
+    </row>
+    <row r="921" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D921" s="1"/>
+    </row>
+    <row r="922" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D922" s="1"/>
+    </row>
+    <row r="923" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D923" s="1"/>
+    </row>
+    <row r="924" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D924" s="1"/>
+    </row>
+    <row r="925" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D925" s="1"/>
+    </row>
+    <row r="926" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D926" s="1"/>
+    </row>
+    <row r="927" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D927" s="1"/>
+    </row>
+    <row r="928" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D928" s="1"/>
+    </row>
+    <row r="929" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D929" s="1"/>
+    </row>
+    <row r="930" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D930" s="1"/>
+    </row>
+    <row r="931" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D931" s="1"/>
+    </row>
+    <row r="932" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D932" s="1"/>
+    </row>
+    <row r="933" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D933" s="1"/>
+    </row>
+    <row r="934" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D934" s="1"/>
+    </row>
+    <row r="935" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D935" s="1"/>
+    </row>
+    <row r="936" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D936" s="1"/>
+    </row>
+    <row r="937" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D937" s="1"/>
+    </row>
+    <row r="938" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D938" s="1"/>
+    </row>
+    <row r="939" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D939" s="1"/>
+    </row>
+    <row r="940" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D940" s="1"/>
+    </row>
+    <row r="941" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D941" s="1"/>
+    </row>
+    <row r="942" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D942" s="1"/>
+    </row>
+    <row r="943" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D943" s="1"/>
+    </row>
+    <row r="944" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D944" s="1"/>
+    </row>
+    <row r="945" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D945" s="1"/>
+    </row>
+    <row r="946" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D946" s="1"/>
+    </row>
+    <row r="947" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D947" s="1"/>
+    </row>
+    <row r="948" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D948" s="1"/>
+    </row>
+    <row r="949" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D949" s="1"/>
+    </row>
+    <row r="950" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D950" s="1"/>
+    </row>
+    <row r="951" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D951" s="1"/>
+    </row>
+    <row r="952" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D952" s="1"/>
+    </row>
+    <row r="953" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D953" s="1"/>
+    </row>
+    <row r="954" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D954" s="1"/>
+    </row>
+    <row r="955" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D955" s="1"/>
+    </row>
+    <row r="956" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D956" s="1"/>
+    </row>
+    <row r="957" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D957" s="1"/>
+    </row>
+    <row r="958" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D958" s="1"/>
+    </row>
+    <row r="959" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D959" s="1"/>
+    </row>
+    <row r="960" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D960" s="1"/>
+    </row>
+    <row r="961" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D961" s="1"/>
+    </row>
+    <row r="962" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D962" s="1"/>
+    </row>
+    <row r="963" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D963" s="1"/>
+    </row>
+    <row r="964" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D964" s="1"/>
+    </row>
+    <row r="965" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D965" s="1"/>
+    </row>
+    <row r="966" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D966" s="1"/>
+    </row>
+    <row r="967" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D967" s="1"/>
+    </row>
+    <row r="968" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D968" s="1"/>
+    </row>
+    <row r="969" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D969" s="1"/>
+    </row>
+    <row r="970" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D970" s="1"/>
+    </row>
+    <row r="971" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D971" s="1"/>
+    </row>
+    <row r="972" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D972" s="1"/>
+    </row>
+    <row r="973" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D973" s="1"/>
+    </row>
+    <row r="974" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D974" s="1"/>
+    </row>
+    <row r="975" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D975" s="1"/>
+    </row>
+    <row r="976" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D976" s="1"/>
+    </row>
+    <row r="977" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D977" s="1"/>
+    </row>
+    <row r="978" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D978" s="1"/>
+    </row>
+    <row r="979" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D979" s="1"/>
+    </row>
+    <row r="980" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D980" s="1"/>
+    </row>
+    <row r="981" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D981" s="1"/>
+    </row>
+    <row r="982" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D982" s="1"/>
+    </row>
+    <row r="983" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D983" s="1"/>
+    </row>
+    <row r="984" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D984" s="1"/>
+    </row>
+    <row r="985" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D985" s="1"/>
+    </row>
+    <row r="986" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D986" s="1"/>
+    </row>
+    <row r="987" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D987" s="1"/>
+    </row>
+    <row r="988" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D988" s="1"/>
+    </row>
+    <row r="989" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D989" s="1"/>
+    </row>
+    <row r="990" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D990" s="1"/>
+    </row>
+    <row r="991" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D991" s="1"/>
+    </row>
+    <row r="992" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D992" s="1"/>
+    </row>
+    <row r="993" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D993" s="1"/>
+    </row>
+    <row r="994" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D994" s="1"/>
+    </row>
+    <row r="995" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D995" s="1"/>
+    </row>
+    <row r="996" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D996" s="1"/>
+    </row>
+    <row r="997" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D997" s="1"/>
+    </row>
+    <row r="998" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D998" s="1"/>
+    </row>
+    <row r="999" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D999" s="1"/>
+    </row>
+    <row r="1000" spans="4:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D1000" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/datasets/raw_data.xlsx
+++ b/datasets/raw_data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mingukang\Desktop\데이터\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mingukang\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D084BA2F-E352-4A95-A353-7D8A65DB0EF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F446D776-B464-4B9B-A7B3-6594FAF9E25B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{236FA7A3-6140-44E9-A3A4-429229785287}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{236FA7A3-6140-44E9-A3A4-429229785287}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="239">
   <si>
     <t>err_msg</t>
   </si>
@@ -2456,12 +2456,15 @@
   <si>
     <t>Downloading http://repo.gradle.org/gradle/distributions/gradle-1.0-milestone-4-bin.zipException in thread "main" java.io.IOException: Server returned HTTP response code: 403 for URL: http://repo.gradle.org/gradle/distributions/gradle-1.0-milestone-4-bin.zip at sun.net.www.protocol.http.HttpURLConnection.getInputStream0(HttpURLConnection.java:1900) at sun.net.www.protocol.http.HttpURLConnection.getInputStream(HttpURLConnection.java:1498) at org.gradle.wrapper.Download.downloadInternal(Download.java:49) at org.gradle.wrapper.Download.download(Download.java:37) at org.gradle.wrapper.Install.createDist(Install.java:54) at org.gradle.wrapper.Wrapper.execute(Wrapper.java:117) at org.gradle.wrapper.GradleWrapperMain.main(GradleWrapperMain.java:37)</t>
   </si>
+  <si>
+    <t>rq2_label</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2492,6 +2495,12 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -2515,10 +2524,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -2833,15 +2844,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{873CBD14-080A-4DC6-A32F-CF6CAAC396B5}">
-  <dimension ref="A1:C323"/>
+  <dimension ref="A1:D323"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H60" sqref="H60"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="4" width="9" style="2"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2851,8 +2865,11 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D1" s="1" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -2862,8 +2879,11 @@
       <c r="C2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D2" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -2873,8 +2893,11 @@
       <c r="C3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -2884,8 +2907,11 @@
       <c r="C4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D4" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -2895,8 +2921,11 @@
       <c r="C5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D5" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -2906,8 +2935,11 @@
       <c r="C6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D6" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -2917,8 +2949,11 @@
       <c r="C7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D7" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -2928,8 +2963,11 @@
       <c r="C8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D8" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -2939,8 +2977,11 @@
       <c r="C9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D9" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -2950,8 +2991,11 @@
       <c r="C10">
         <v>2</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D10" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>232</v>
       </c>
@@ -2961,8 +3005,11 @@
       <c r="C11">
         <v>2</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D11" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>233</v>
       </c>
@@ -2972,8 +3019,11 @@
       <c r="C12">
         <v>2</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D12" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>234</v>
       </c>
@@ -2983,8 +3033,11 @@
       <c r="C13">
         <v>2</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D13" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>235</v>
       </c>
@@ -2994,8 +3047,11 @@
       <c r="C14">
         <v>2</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D14" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>236</v>
       </c>
@@ -3005,8 +3061,11 @@
       <c r="C15">
         <v>2</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D15" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>12</v>
       </c>
@@ -3016,8 +3075,11 @@
       <c r="C16">
         <v>2</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D16" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>13</v>
       </c>
@@ -3027,8 +3089,11 @@
       <c r="C17">
         <v>2</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D17" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>14</v>
       </c>
@@ -3038,8 +3103,11 @@
       <c r="C18">
         <v>2</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D18" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>15</v>
       </c>
@@ -3049,8 +3117,11 @@
       <c r="C19">
         <v>2</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D19" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>16</v>
       </c>
@@ -3060,8 +3131,11 @@
       <c r="C20">
         <v>2</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D20" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>17</v>
       </c>
@@ -3071,8 +3145,11 @@
       <c r="C21">
         <v>2</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D21" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>18</v>
       </c>
@@ -3082,8 +3159,11 @@
       <c r="C22">
         <v>2</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D22" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>19</v>
       </c>
@@ -3093,8 +3173,11 @@
       <c r="C23">
         <v>2</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D23" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>20</v>
       </c>
@@ -3104,8 +3187,11 @@
       <c r="C24">
         <v>2</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D24" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>21</v>
       </c>
@@ -3115,8 +3201,11 @@
       <c r="C25">
         <v>2</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D25" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>22</v>
       </c>
@@ -3126,8 +3215,11 @@
       <c r="C26">
         <v>2</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D26" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>23</v>
       </c>
@@ -3137,8 +3229,11 @@
       <c r="C27">
         <v>2</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D27" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>24</v>
       </c>
@@ -3148,8 +3243,11 @@
       <c r="C28">
         <v>2</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D28" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>25</v>
       </c>
@@ -3159,8 +3257,11 @@
       <c r="C29">
         <v>2</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D29" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>26</v>
       </c>
@@ -3170,8 +3271,11 @@
       <c r="C30">
         <v>2</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D30" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>27</v>
       </c>
@@ -3181,8 +3285,11 @@
       <c r="C31">
         <v>2</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D31" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>28</v>
       </c>
@@ -3192,8 +3299,11 @@
       <c r="C32">
         <v>2</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D32" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>29</v>
       </c>
@@ -3203,8 +3313,11 @@
       <c r="C33">
         <v>2</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D33" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>30</v>
       </c>
@@ -3214,8 +3327,11 @@
       <c r="C34">
         <v>2</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D34" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>31</v>
       </c>
@@ -3225,8 +3341,11 @@
       <c r="C35">
         <v>2</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D35" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>32</v>
       </c>
@@ -3236,8 +3355,11 @@
       <c r="C36">
         <v>2</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D36" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>33</v>
       </c>
@@ -3247,8 +3369,11 @@
       <c r="C37">
         <v>2</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D37" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>34</v>
       </c>
@@ -3258,8 +3383,11 @@
       <c r="C38">
         <v>2</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D38" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>35</v>
       </c>
@@ -3269,8 +3397,11 @@
       <c r="C39">
         <v>2</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D39" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>36</v>
       </c>
@@ -3280,8 +3411,11 @@
       <c r="C40">
         <v>2</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D40" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>37</v>
       </c>
@@ -3291,8 +3425,11 @@
       <c r="C41">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D41" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>38</v>
       </c>
@@ -3302,8 +3439,11 @@
       <c r="C42">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D42" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>39</v>
       </c>
@@ -3313,8 +3453,11 @@
       <c r="C43">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D43" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>40</v>
       </c>
@@ -3324,8 +3467,11 @@
       <c r="C44">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D44" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>41</v>
       </c>
@@ -3335,8 +3481,11 @@
       <c r="C45">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D45" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>42</v>
       </c>
@@ -3346,8 +3495,11 @@
       <c r="C46">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D46" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>43</v>
       </c>
@@ -3357,8 +3509,11 @@
       <c r="C47">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D47" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>44</v>
       </c>
@@ -3368,8 +3523,11 @@
       <c r="C48">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D48" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>45</v>
       </c>
@@ -3379,8 +3537,11 @@
       <c r="C49">
         <v>4</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D49" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>46</v>
       </c>
@@ -3390,8 +3551,11 @@
       <c r="C50">
         <v>4</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D50" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>47</v>
       </c>
@@ -3401,8 +3565,11 @@
       <c r="C51">
         <v>4</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D51" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>48</v>
       </c>
@@ -3412,8 +3579,11 @@
       <c r="C52">
         <v>4</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D52" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>49</v>
       </c>
@@ -3423,8 +3593,11 @@
       <c r="C53">
         <v>5</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D53" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>50</v>
       </c>
@@ -3434,8 +3607,11 @@
       <c r="C54">
         <v>6</v>
       </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D54" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>51</v>
       </c>
@@ -3445,8 +3621,11 @@
       <c r="C55">
         <v>6</v>
       </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D55" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>52</v>
       </c>
@@ -3456,8 +3635,11 @@
       <c r="C56">
         <v>6</v>
       </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D56" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>53</v>
       </c>
@@ -3467,8 +3649,11 @@
       <c r="C57">
         <v>6</v>
       </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D57" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>54</v>
       </c>
@@ -3478,8 +3663,11 @@
       <c r="C58">
         <v>6</v>
       </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D58" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>55</v>
       </c>
@@ -3489,8 +3677,11 @@
       <c r="C59">
         <v>6</v>
       </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D59" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>56</v>
       </c>
@@ -3500,8 +3691,11 @@
       <c r="C60">
         <v>6</v>
       </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D60" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>57</v>
       </c>
@@ -3511,8 +3705,11 @@
       <c r="C61">
         <v>6</v>
       </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D61" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>58</v>
       </c>
@@ -3522,8 +3719,11 @@
       <c r="C62">
         <v>6</v>
       </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D62" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>59</v>
       </c>
@@ -3533,8 +3733,11 @@
       <c r="C63">
         <v>6</v>
       </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D63" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>60</v>
       </c>
@@ -3544,8 +3747,11 @@
       <c r="C64">
         <v>6</v>
       </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D64" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>61</v>
       </c>
@@ -3555,8 +3761,11 @@
       <c r="C65">
         <v>6</v>
       </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D65" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>62</v>
       </c>
@@ -3566,8 +3775,11 @@
       <c r="C66">
         <v>6</v>
       </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D66" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>63</v>
       </c>
@@ -3577,8 +3789,11 @@
       <c r="C67">
         <v>6</v>
       </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D67" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>64</v>
       </c>
@@ -3588,8 +3803,11 @@
       <c r="C68">
         <v>6</v>
       </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D68" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>65</v>
       </c>
@@ -3599,8 +3817,11 @@
       <c r="C69">
         <v>6</v>
       </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D69" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>66</v>
       </c>
@@ -3610,8 +3831,11 @@
       <c r="C70">
         <v>6</v>
       </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D70" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>67</v>
       </c>
@@ -3621,8 +3845,11 @@
       <c r="C71">
         <v>6</v>
       </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D71" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>68</v>
       </c>
@@ -3632,8 +3859,11 @@
       <c r="C72">
         <v>6</v>
       </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D72" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>68</v>
       </c>
@@ -3643,8 +3873,11 @@
       <c r="C73">
         <v>6</v>
       </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D73" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>69</v>
       </c>
@@ -3654,8 +3887,11 @@
       <c r="C74">
         <v>6</v>
       </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D74" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>70</v>
       </c>
@@ -3665,8 +3901,11 @@
       <c r="C75">
         <v>6</v>
       </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D75" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>71</v>
       </c>
@@ -3676,8 +3915,11 @@
       <c r="C76">
         <v>6</v>
       </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D76" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>72</v>
       </c>
@@ -3687,8 +3929,11 @@
       <c r="C77">
         <v>6</v>
       </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D77" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>73</v>
       </c>
@@ -3698,8 +3943,11 @@
       <c r="C78">
         <v>7</v>
       </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D78" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>74</v>
       </c>
@@ -3709,8 +3957,11 @@
       <c r="C79">
         <v>7</v>
       </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D79" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>75</v>
       </c>
@@ -3720,8 +3971,11 @@
       <c r="C80">
         <v>8</v>
       </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D80" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>76</v>
       </c>
@@ -3731,8 +3985,11 @@
       <c r="C81">
         <v>8</v>
       </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D81" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>77</v>
       </c>
@@ -3742,8 +3999,11 @@
       <c r="C82">
         <v>8</v>
       </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D82" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>77</v>
       </c>
@@ -3753,8 +4013,11 @@
       <c r="C83">
         <v>8</v>
       </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D83" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>77</v>
       </c>
@@ -3764,8 +4027,11 @@
       <c r="C84">
         <v>8</v>
       </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D84" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>77</v>
       </c>
@@ -3775,8 +4041,11 @@
       <c r="C85">
         <v>8</v>
       </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D85" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>77</v>
       </c>
@@ -3786,8 +4055,11 @@
       <c r="C86">
         <v>8</v>
       </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D86" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>77</v>
       </c>
@@ -3797,8 +4069,11 @@
       <c r="C87">
         <v>8</v>
       </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D87" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>77</v>
       </c>
@@ -3808,8 +4083,11 @@
       <c r="C88">
         <v>8</v>
       </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D88" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>77</v>
       </c>
@@ -3819,8 +4097,11 @@
       <c r="C89">
         <v>8</v>
       </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D89" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>77</v>
       </c>
@@ -3830,8 +4111,11 @@
       <c r="C90">
         <v>8</v>
       </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D90" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>77</v>
       </c>
@@ -3841,8 +4125,11 @@
       <c r="C91">
         <v>8</v>
       </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D91" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>77</v>
       </c>
@@ -3852,8 +4139,11 @@
       <c r="C92">
         <v>8</v>
       </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D92" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>77</v>
       </c>
@@ -3863,8 +4153,11 @@
       <c r="C93">
         <v>8</v>
       </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D93" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>77</v>
       </c>
@@ -3874,8 +4167,11 @@
       <c r="C94">
         <v>8</v>
       </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D94" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>77</v>
       </c>
@@ -3885,8 +4181,11 @@
       <c r="C95">
         <v>8</v>
       </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D95" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>77</v>
       </c>
@@ -3896,8 +4195,11 @@
       <c r="C96">
         <v>8</v>
       </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D96" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>77</v>
       </c>
@@ -3907,8 +4209,11 @@
       <c r="C97">
         <v>8</v>
       </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D97" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>77</v>
       </c>
@@ -3918,8 +4223,11 @@
       <c r="C98">
         <v>8</v>
       </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D98" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>77</v>
       </c>
@@ -3929,8 +4237,11 @@
       <c r="C99">
         <v>8</v>
       </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D99" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>78</v>
       </c>
@@ -3940,8 +4251,11 @@
       <c r="C100">
         <v>8</v>
       </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D100" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>79</v>
       </c>
@@ -3951,8 +4265,11 @@
       <c r="C101">
         <v>8</v>
       </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D101" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>80</v>
       </c>
@@ -3962,8 +4279,11 @@
       <c r="C102">
         <v>8</v>
       </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D102" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>81</v>
       </c>
@@ -3973,8 +4293,11 @@
       <c r="C103">
         <v>8</v>
       </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D103" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>82</v>
       </c>
@@ -3984,8 +4307,11 @@
       <c r="C104">
         <v>8</v>
       </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D104" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>83</v>
       </c>
@@ -3995,8 +4321,11 @@
       <c r="C105">
         <v>8</v>
       </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D105" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>83</v>
       </c>
@@ -4006,8 +4335,11 @@
       <c r="C106">
         <v>8</v>
       </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D106" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>83</v>
       </c>
@@ -4017,8 +4349,11 @@
       <c r="C107">
         <v>8</v>
       </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D107" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>83</v>
       </c>
@@ -4028,8 +4363,11 @@
       <c r="C108">
         <v>8</v>
       </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D108" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>83</v>
       </c>
@@ -4039,8 +4377,11 @@
       <c r="C109">
         <v>8</v>
       </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D109" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>83</v>
       </c>
@@ -4050,8 +4391,11 @@
       <c r="C110">
         <v>8</v>
       </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D110" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>83</v>
       </c>
@@ -4061,8 +4405,11 @@
       <c r="C111">
         <v>8</v>
       </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D111" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>84</v>
       </c>
@@ -4072,8 +4419,11 @@
       <c r="C112">
         <v>8</v>
       </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D112" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>85</v>
       </c>
@@ -4083,8 +4433,11 @@
       <c r="C113">
         <v>8</v>
       </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D113" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>86</v>
       </c>
@@ -4094,8 +4447,11 @@
       <c r="C114">
         <v>8</v>
       </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D114" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>87</v>
       </c>
@@ -4105,8 +4461,11 @@
       <c r="C115">
         <v>8</v>
       </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D115" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>88</v>
       </c>
@@ -4116,8 +4475,11 @@
       <c r="C116">
         <v>8</v>
       </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D116" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>89</v>
       </c>
@@ -4127,8 +4489,11 @@
       <c r="C117">
         <v>8</v>
       </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D117" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>89</v>
       </c>
@@ -4138,8 +4503,11 @@
       <c r="C118">
         <v>8</v>
       </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D118" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>90</v>
       </c>
@@ -4149,8 +4517,11 @@
       <c r="C119">
         <v>8</v>
       </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D119" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>91</v>
       </c>
@@ -4160,8 +4531,11 @@
       <c r="C120">
         <v>8</v>
       </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D120" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>92</v>
       </c>
@@ -4171,8 +4545,11 @@
       <c r="C121">
         <v>8</v>
       </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D121" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>93</v>
       </c>
@@ -4182,8 +4559,11 @@
       <c r="C122">
         <v>8</v>
       </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D122" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>94</v>
       </c>
@@ -4193,8 +4573,11 @@
       <c r="C123">
         <v>8</v>
       </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D123" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>94</v>
       </c>
@@ -4204,8 +4587,11 @@
       <c r="C124">
         <v>8</v>
       </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D124" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>94</v>
       </c>
@@ -4215,8 +4601,11 @@
       <c r="C125">
         <v>8</v>
       </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D125" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>94</v>
       </c>
@@ -4226,8 +4615,11 @@
       <c r="C126">
         <v>8</v>
       </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D126" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>94</v>
       </c>
@@ -4237,8 +4629,11 @@
       <c r="C127">
         <v>8</v>
       </c>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D127" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>94</v>
       </c>
@@ -4248,8 +4643,11 @@
       <c r="C128">
         <v>8</v>
       </c>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D128" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>94</v>
       </c>
@@ -4259,8 +4657,11 @@
       <c r="C129">
         <v>8</v>
       </c>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D129" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>95</v>
       </c>
@@ -4270,8 +4671,11 @@
       <c r="C130">
         <v>8</v>
       </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D130" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>96</v>
       </c>
@@ -4281,8 +4685,11 @@
       <c r="C131">
         <v>8</v>
       </c>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D131" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>97</v>
       </c>
@@ -4292,8 +4699,11 @@
       <c r="C132">
         <v>8</v>
       </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D132" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>98</v>
       </c>
@@ -4303,8 +4713,11 @@
       <c r="C133">
         <v>8</v>
       </c>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D133" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>99</v>
       </c>
@@ -4314,8 +4727,11 @@
       <c r="C134">
         <v>8</v>
       </c>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D134" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>100</v>
       </c>
@@ -4325,8 +4741,11 @@
       <c r="C135">
         <v>8</v>
       </c>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D135" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>100</v>
       </c>
@@ -4336,8 +4755,11 @@
       <c r="C136">
         <v>8</v>
       </c>
-    </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D136" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>100</v>
       </c>
@@ -4347,8 +4769,11 @@
       <c r="C137">
         <v>8</v>
       </c>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D137" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>100</v>
       </c>
@@ -4358,8 +4783,11 @@
       <c r="C138">
         <v>8</v>
       </c>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D138" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>100</v>
       </c>
@@ -4369,8 +4797,11 @@
       <c r="C139">
         <v>8</v>
       </c>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D139" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>101</v>
       </c>
@@ -4380,8 +4811,11 @@
       <c r="C140">
         <v>8</v>
       </c>
-    </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D140" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>101</v>
       </c>
@@ -4391,8 +4825,11 @@
       <c r="C141">
         <v>8</v>
       </c>
-    </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D141" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>102</v>
       </c>
@@ -4402,8 +4839,11 @@
       <c r="C142">
         <v>8</v>
       </c>
-    </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D142" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>103</v>
       </c>
@@ -4413,8 +4853,11 @@
       <c r="C143">
         <v>8</v>
       </c>
-    </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D143" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>103</v>
       </c>
@@ -4424,8 +4867,11 @@
       <c r="C144">
         <v>8</v>
       </c>
-    </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D144" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>104</v>
       </c>
@@ -4435,8 +4881,11 @@
       <c r="C145">
         <v>8</v>
       </c>
-    </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D145" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>237</v>
       </c>
@@ -4446,8 +4895,11 @@
       <c r="C146">
         <v>8</v>
       </c>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D146" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>105</v>
       </c>
@@ -4457,8 +4909,11 @@
       <c r="C147">
         <v>9</v>
       </c>
-    </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D147" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>106</v>
       </c>
@@ -4468,8 +4923,11 @@
       <c r="C148">
         <v>9</v>
       </c>
-    </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D148" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>106</v>
       </c>
@@ -4479,8 +4937,11 @@
       <c r="C149">
         <v>9</v>
       </c>
-    </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D149" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>107</v>
       </c>
@@ -4490,8 +4951,11 @@
       <c r="C150">
         <v>9</v>
       </c>
-    </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D150" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>108</v>
       </c>
@@ -4501,8 +4965,11 @@
       <c r="C151">
         <v>9</v>
       </c>
-    </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D151" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>109</v>
       </c>
@@ -4512,8 +4979,11 @@
       <c r="C152">
         <v>9</v>
       </c>
-    </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D152" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>110</v>
       </c>
@@ -4523,8 +4993,11 @@
       <c r="C153">
         <v>9</v>
       </c>
-    </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D153" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>111</v>
       </c>
@@ -4534,8 +5007,11 @@
       <c r="C154">
         <v>9</v>
       </c>
-    </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D154" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>112</v>
       </c>
@@ -4545,8 +5021,11 @@
       <c r="C155">
         <v>9</v>
       </c>
-    </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D155" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>113</v>
       </c>
@@ -4556,8 +5035,11 @@
       <c r="C156">
         <v>9</v>
       </c>
-    </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D156" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>114</v>
       </c>
@@ -4567,8 +5049,11 @@
       <c r="C157">
         <v>9</v>
       </c>
-    </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D157" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>115</v>
       </c>
@@ -4578,8 +5063,11 @@
       <c r="C158">
         <v>9</v>
       </c>
-    </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D158" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>116</v>
       </c>
@@ -4589,8 +5077,11 @@
       <c r="C159">
         <v>9</v>
       </c>
-    </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D159" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>117</v>
       </c>
@@ -4600,8 +5091,11 @@
       <c r="C160">
         <v>9</v>
       </c>
-    </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D160" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>118</v>
       </c>
@@ -4611,8 +5105,11 @@
       <c r="C161">
         <v>9</v>
       </c>
-    </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D161" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>119</v>
       </c>
@@ -4622,8 +5119,11 @@
       <c r="C162">
         <v>9</v>
       </c>
-    </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D162" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>120</v>
       </c>
@@ -4633,8 +5133,11 @@
       <c r="C163">
         <v>10</v>
       </c>
-    </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D163" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>121</v>
       </c>
@@ -4644,8 +5147,11 @@
       <c r="C164">
         <v>10</v>
       </c>
-    </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D164" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>122</v>
       </c>
@@ -4655,8 +5161,11 @@
       <c r="C165">
         <v>10</v>
       </c>
-    </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D165" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>123</v>
       </c>
@@ -4666,8 +5175,11 @@
       <c r="C166">
         <v>10</v>
       </c>
-    </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D166" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>124</v>
       </c>
@@ -4677,8 +5189,11 @@
       <c r="C167">
         <v>11</v>
       </c>
-    </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D167" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>125</v>
       </c>
@@ -4688,8 +5203,11 @@
       <c r="C168">
         <v>11</v>
       </c>
-    </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D168" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>126</v>
       </c>
@@ -4699,8 +5217,11 @@
       <c r="C169">
         <v>11</v>
       </c>
-    </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D169" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>127</v>
       </c>
@@ -4710,8 +5231,11 @@
       <c r="C170">
         <v>11</v>
       </c>
-    </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D170" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>128</v>
       </c>
@@ -4721,8 +5245,11 @@
       <c r="C171">
         <v>11</v>
       </c>
-    </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D171" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>129</v>
       </c>
@@ -4732,8 +5259,11 @@
       <c r="C172">
         <v>11</v>
       </c>
-    </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D172" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>130</v>
       </c>
@@ -4743,8 +5273,11 @@
       <c r="C173">
         <v>11</v>
       </c>
-    </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D173" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>131</v>
       </c>
@@ -4754,8 +5287,11 @@
       <c r="C174">
         <v>11</v>
       </c>
-    </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D174" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>132</v>
       </c>
@@ -4765,8 +5301,11 @@
       <c r="C175">
         <v>12</v>
       </c>
-    </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D175" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>133</v>
       </c>
@@ -4776,8 +5315,11 @@
       <c r="C176">
         <v>12</v>
       </c>
-    </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D176" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>134</v>
       </c>
@@ -4787,8 +5329,11 @@
       <c r="C177">
         <v>12</v>
       </c>
-    </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D177" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>135</v>
       </c>
@@ -4798,8 +5343,11 @@
       <c r="C178">
         <v>12</v>
       </c>
-    </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D178" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>136</v>
       </c>
@@ -4809,8 +5357,11 @@
       <c r="C179">
         <v>13</v>
       </c>
-    </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D179" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>137</v>
       </c>
@@ -4820,8 +5371,11 @@
       <c r="C180">
         <v>14</v>
       </c>
-    </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D180" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>138</v>
       </c>
@@ -4831,8 +5385,11 @@
       <c r="C181">
         <v>14</v>
       </c>
-    </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D181" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>139</v>
       </c>
@@ -4842,8 +5399,11 @@
       <c r="C182">
         <v>14</v>
       </c>
-    </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D182" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>140</v>
       </c>
@@ -4853,8 +5413,11 @@
       <c r="C183">
         <v>14</v>
       </c>
-    </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D183" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>141</v>
       </c>
@@ -4864,8 +5427,11 @@
       <c r="C184">
         <v>14</v>
       </c>
-    </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D184" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>142</v>
       </c>
@@ -4875,8 +5441,11 @@
       <c r="C185">
         <v>14</v>
       </c>
-    </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D185" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>143</v>
       </c>
@@ -4886,8 +5455,11 @@
       <c r="C186">
         <v>14</v>
       </c>
-    </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D186" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>144</v>
       </c>
@@ -4897,8 +5469,11 @@
       <c r="C187">
         <v>14</v>
       </c>
-    </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D187" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>145</v>
       </c>
@@ -4908,8 +5483,11 @@
       <c r="C188">
         <v>14</v>
       </c>
-    </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D188" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>146</v>
       </c>
@@ -4919,8 +5497,11 @@
       <c r="C189">
         <v>14</v>
       </c>
-    </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D189" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>147</v>
       </c>
@@ -4930,8 +5511,11 @@
       <c r="C190">
         <v>14</v>
       </c>
-    </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D190" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>148</v>
       </c>
@@ -4941,8 +5525,11 @@
       <c r="C191">
         <v>14</v>
       </c>
-    </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D191" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>149</v>
       </c>
@@ -4952,8 +5539,11 @@
       <c r="C192">
         <v>14</v>
       </c>
-    </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D192" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>150</v>
       </c>
@@ -4963,8 +5553,11 @@
       <c r="C193">
         <v>14</v>
       </c>
-    </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D193" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>151</v>
       </c>
@@ -4974,8 +5567,11 @@
       <c r="C194">
         <v>14</v>
       </c>
-    </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D194" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>152</v>
       </c>
@@ -4985,8 +5581,11 @@
       <c r="C195">
         <v>14</v>
       </c>
-    </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D195" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>153</v>
       </c>
@@ -4996,8 +5595,11 @@
       <c r="C196">
         <v>15</v>
       </c>
-    </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D196" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>154</v>
       </c>
@@ -5007,8 +5609,11 @@
       <c r="C197">
         <v>16</v>
       </c>
-    </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D197" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>155</v>
       </c>
@@ -5018,8 +5623,11 @@
       <c r="C198">
         <v>16</v>
       </c>
-    </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D198" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>156</v>
       </c>
@@ -5029,8 +5637,11 @@
       <c r="C199">
         <v>17</v>
       </c>
-    </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D199" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>157</v>
       </c>
@@ -5040,8 +5651,11 @@
       <c r="C200">
         <v>17</v>
       </c>
-    </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D200" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>158</v>
       </c>
@@ -5051,8 +5665,11 @@
       <c r="C201">
         <v>17</v>
       </c>
-    </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D201" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>159</v>
       </c>
@@ -5062,8 +5679,11 @@
       <c r="C202">
         <v>18</v>
       </c>
-    </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D202" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>159</v>
       </c>
@@ -5073,8 +5693,11 @@
       <c r="C203">
         <v>18</v>
       </c>
-    </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D203" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>159</v>
       </c>
@@ -5084,8 +5707,11 @@
       <c r="C204">
         <v>18</v>
       </c>
-    </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D204" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>159</v>
       </c>
@@ -5095,8 +5721,11 @@
       <c r="C205">
         <v>18</v>
       </c>
-    </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D205" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>159</v>
       </c>
@@ -5106,8 +5735,11 @@
       <c r="C206">
         <v>18</v>
       </c>
-    </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D206" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>159</v>
       </c>
@@ -5117,8 +5749,11 @@
       <c r="C207">
         <v>18</v>
       </c>
-    </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D207" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>159</v>
       </c>
@@ -5128,8 +5763,11 @@
       <c r="C208">
         <v>18</v>
       </c>
-    </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D208" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>159</v>
       </c>
@@ -5139,8 +5777,11 @@
       <c r="C209">
         <v>18</v>
       </c>
-    </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D209" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>159</v>
       </c>
@@ -5150,8 +5791,11 @@
       <c r="C210">
         <v>18</v>
       </c>
-    </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D210" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>159</v>
       </c>
@@ -5161,8 +5805,11 @@
       <c r="C211">
         <v>18</v>
       </c>
-    </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D211" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>159</v>
       </c>
@@ -5172,8 +5819,11 @@
       <c r="C212">
         <v>18</v>
       </c>
-    </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D212" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>159</v>
       </c>
@@ -5183,8 +5833,11 @@
       <c r="C213">
         <v>18</v>
       </c>
-    </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D213" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>159</v>
       </c>
@@ -5194,8 +5847,11 @@
       <c r="C214">
         <v>18</v>
       </c>
-    </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D214" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>159</v>
       </c>
@@ -5205,8 +5861,11 @@
       <c r="C215">
         <v>18</v>
       </c>
-    </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D215" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>159</v>
       </c>
@@ -5216,8 +5875,11 @@
       <c r="C216">
         <v>18</v>
       </c>
-    </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D216" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>159</v>
       </c>
@@ -5227,8 +5889,11 @@
       <c r="C217">
         <v>18</v>
       </c>
-    </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D217" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>159</v>
       </c>
@@ -5238,8 +5903,11 @@
       <c r="C218">
         <v>18</v>
       </c>
-    </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D218" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>159</v>
       </c>
@@ -5249,8 +5917,11 @@
       <c r="C219">
         <v>18</v>
       </c>
-    </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D219" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>159</v>
       </c>
@@ -5260,8 +5931,11 @@
       <c r="C220">
         <v>18</v>
       </c>
-    </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D220" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>159</v>
       </c>
@@ -5271,8 +5945,11 @@
       <c r="C221">
         <v>18</v>
       </c>
-    </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D221" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>159</v>
       </c>
@@ -5282,8 +5959,11 @@
       <c r="C222">
         <v>18</v>
       </c>
-    </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D222" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>159</v>
       </c>
@@ -5293,8 +5973,11 @@
       <c r="C223">
         <v>18</v>
       </c>
-    </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D223" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>159</v>
       </c>
@@ -5304,8 +5987,11 @@
       <c r="C224">
         <v>18</v>
       </c>
-    </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D224" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>159</v>
       </c>
@@ -5315,8 +6001,11 @@
       <c r="C225">
         <v>18</v>
       </c>
-    </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D225" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>159</v>
       </c>
@@ -5326,8 +6015,11 @@
       <c r="C226">
         <v>18</v>
       </c>
-    </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D226" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>159</v>
       </c>
@@ -5337,8 +6029,11 @@
       <c r="C227">
         <v>18</v>
       </c>
-    </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D227" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>159</v>
       </c>
@@ -5348,8 +6043,11 @@
       <c r="C228">
         <v>18</v>
       </c>
-    </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D228" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>160</v>
       </c>
@@ -5359,8 +6057,11 @@
       <c r="C229">
         <v>18</v>
       </c>
-    </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D229" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>161</v>
       </c>
@@ -5370,8 +6071,11 @@
       <c r="C230">
         <v>19</v>
       </c>
-    </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D230" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>162</v>
       </c>
@@ -5381,8 +6085,11 @@
       <c r="C231">
         <v>20</v>
       </c>
-    </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D231" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>163</v>
       </c>
@@ -5392,8 +6099,11 @@
       <c r="C232">
         <v>20</v>
       </c>
-    </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D232" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>163</v>
       </c>
@@ -5403,8 +6113,11 @@
       <c r="C233">
         <v>20</v>
       </c>
-    </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D233" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>164</v>
       </c>
@@ -5414,8 +6127,11 @@
       <c r="C234">
         <v>21</v>
       </c>
-    </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D234" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>165</v>
       </c>
@@ -5425,8 +6141,11 @@
       <c r="C235">
         <v>21</v>
       </c>
-    </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D235" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>165</v>
       </c>
@@ -5436,8 +6155,11 @@
       <c r="C236">
         <v>21</v>
       </c>
-    </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D236" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>165</v>
       </c>
@@ -5447,8 +6169,11 @@
       <c r="C237">
         <v>21</v>
       </c>
-    </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D237" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>166</v>
       </c>
@@ -5458,8 +6183,11 @@
       <c r="C238">
         <v>21</v>
       </c>
-    </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D238" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>165</v>
       </c>
@@ -5469,8 +6197,11 @@
       <c r="C239">
         <v>21</v>
       </c>
-    </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D239" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>167</v>
       </c>
@@ -5480,8 +6211,11 @@
       <c r="C240">
         <v>21</v>
       </c>
-    </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D240" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>168</v>
       </c>
@@ -5491,8 +6225,11 @@
       <c r="C241">
         <v>22</v>
       </c>
-    </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D241" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>169</v>
       </c>
@@ -5502,8 +6239,11 @@
       <c r="C242">
         <v>22</v>
       </c>
-    </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D242" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>170</v>
       </c>
@@ -5513,8 +6253,11 @@
       <c r="C243">
         <v>22</v>
       </c>
-    </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D243" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>170</v>
       </c>
@@ -5524,8 +6267,11 @@
       <c r="C244">
         <v>22</v>
       </c>
-    </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D244" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>170</v>
       </c>
@@ -5535,8 +6281,11 @@
       <c r="C245">
         <v>22</v>
       </c>
-    </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D245" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>170</v>
       </c>
@@ -5546,8 +6295,11 @@
       <c r="C246">
         <v>22</v>
       </c>
-    </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D246" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>170</v>
       </c>
@@ -5557,8 +6309,11 @@
       <c r="C247">
         <v>22</v>
       </c>
-    </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D247" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>170</v>
       </c>
@@ -5568,8 +6323,11 @@
       <c r="C248">
         <v>22</v>
       </c>
-    </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D248" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>170</v>
       </c>
@@ -5579,8 +6337,11 @@
       <c r="C249">
         <v>22</v>
       </c>
-    </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D249" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>170</v>
       </c>
@@ -5590,8 +6351,11 @@
       <c r="C250">
         <v>22</v>
       </c>
-    </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D250" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>170</v>
       </c>
@@ -5601,8 +6365,11 @@
       <c r="C251">
         <v>22</v>
       </c>
-    </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D251" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>170</v>
       </c>
@@ -5612,8 +6379,11 @@
       <c r="C252">
         <v>22</v>
       </c>
-    </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D252" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>170</v>
       </c>
@@ -5623,8 +6393,11 @@
       <c r="C253">
         <v>22</v>
       </c>
-    </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D253" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>170</v>
       </c>
@@ -5634,8 +6407,11 @@
       <c r="C254">
         <v>22</v>
       </c>
-    </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D254" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>170</v>
       </c>
@@ -5645,8 +6421,11 @@
       <c r="C255">
         <v>22</v>
       </c>
-    </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D255" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>170</v>
       </c>
@@ -5656,8 +6435,11 @@
       <c r="C256">
         <v>22</v>
       </c>
-    </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D256" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>171</v>
       </c>
@@ -5667,8 +6449,11 @@
       <c r="C257">
         <v>22</v>
       </c>
-    </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D257" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>172</v>
       </c>
@@ -5678,8 +6463,11 @@
       <c r="C258">
         <v>23</v>
       </c>
-    </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D258" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>173</v>
       </c>
@@ -5689,8 +6477,11 @@
       <c r="C259">
         <v>23</v>
       </c>
-    </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D259" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>174</v>
       </c>
@@ -5700,8 +6491,11 @@
       <c r="C260">
         <v>23</v>
       </c>
-    </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D260" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>175</v>
       </c>
@@ -5711,8 +6505,11 @@
       <c r="C261">
         <v>23</v>
       </c>
-    </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D261" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>175</v>
       </c>
@@ -5722,8 +6519,11 @@
       <c r="C262">
         <v>23</v>
       </c>
-    </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D262" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>175</v>
       </c>
@@ -5733,8 +6533,11 @@
       <c r="C263">
         <v>23</v>
       </c>
-    </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D263" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>176</v>
       </c>
@@ -5744,8 +6547,11 @@
       <c r="C264">
         <v>23</v>
       </c>
-    </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D264" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>177</v>
       </c>
@@ -5755,8 +6561,11 @@
       <c r="C265">
         <v>23</v>
       </c>
-    </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D265" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>178</v>
       </c>
@@ -5766,8 +6575,11 @@
       <c r="C266">
         <v>24</v>
       </c>
-    </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D266" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>179</v>
       </c>
@@ -5777,8 +6589,11 @@
       <c r="C267">
         <v>24</v>
       </c>
-    </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D267" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
         <v>180</v>
       </c>
@@ -5788,8 +6603,11 @@
       <c r="C268">
         <v>24</v>
       </c>
-    </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D268" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
         <v>181</v>
       </c>
@@ -5799,8 +6617,11 @@
       <c r="C269">
         <v>24</v>
       </c>
-    </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D269" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
         <v>182</v>
       </c>
@@ -5810,8 +6631,11 @@
       <c r="C270">
         <v>24</v>
       </c>
-    </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D270" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
         <v>183</v>
       </c>
@@ -5821,8 +6645,11 @@
       <c r="C271">
         <v>24</v>
       </c>
-    </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D271" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>184</v>
       </c>
@@ -5832,8 +6659,11 @@
       <c r="C272">
         <v>25</v>
       </c>
-    </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D272" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
         <v>185</v>
       </c>
@@ -5843,8 +6673,11 @@
       <c r="C273">
         <v>25</v>
       </c>
-    </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D273" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
         <v>186</v>
       </c>
@@ -5854,8 +6687,11 @@
       <c r="C274">
         <v>26</v>
       </c>
-    </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D274" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
         <v>187</v>
       </c>
@@ -5865,8 +6701,11 @@
       <c r="C275">
         <v>26</v>
       </c>
-    </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D275" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
         <v>188</v>
       </c>
@@ -5876,8 +6715,11 @@
       <c r="C276">
         <v>26</v>
       </c>
-    </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D276" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
         <v>189</v>
       </c>
@@ -5887,8 +6729,11 @@
       <c r="C277">
         <v>26</v>
       </c>
-    </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D277" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
         <v>190</v>
       </c>
@@ -5898,8 +6743,11 @@
       <c r="C278">
         <v>26</v>
       </c>
-    </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D278" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
         <v>191</v>
       </c>
@@ -5909,8 +6757,11 @@
       <c r="C279">
         <v>26</v>
       </c>
-    </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D279" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
         <v>192</v>
       </c>
@@ -5920,8 +6771,11 @@
       <c r="C280">
         <v>26</v>
       </c>
-    </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D280" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
         <v>193</v>
       </c>
@@ -5931,8 +6785,11 @@
       <c r="C281">
         <v>26</v>
       </c>
-    </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D281" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
         <v>194</v>
       </c>
@@ -5942,8 +6799,11 @@
       <c r="C282">
         <v>26</v>
       </c>
-    </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D282" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
         <v>195</v>
       </c>
@@ -5953,8 +6813,11 @@
       <c r="C283">
         <v>26</v>
       </c>
-    </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D283" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
         <v>196</v>
       </c>
@@ -5964,8 +6827,11 @@
       <c r="C284">
         <v>26</v>
       </c>
-    </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D284" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
         <v>197</v>
       </c>
@@ -5975,8 +6841,11 @@
       <c r="C285">
         <v>26</v>
       </c>
-    </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D285" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
         <v>198</v>
       </c>
@@ -5986,8 +6855,11 @@
       <c r="C286">
         <v>26</v>
       </c>
-    </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D286" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
         <v>199</v>
       </c>
@@ -5997,8 +6869,11 @@
       <c r="C287">
         <v>26</v>
       </c>
-    </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D287" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
         <v>200</v>
       </c>
@@ -6008,8 +6883,11 @@
       <c r="C288">
         <v>26</v>
       </c>
-    </row>
-    <row r="289" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D288" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
         <v>201</v>
       </c>
@@ -6019,8 +6897,11 @@
       <c r="C289">
         <v>26</v>
       </c>
-    </row>
-    <row r="290" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D289" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
         <v>202</v>
       </c>
@@ -6030,8 +6911,11 @@
       <c r="C290">
         <v>26</v>
       </c>
-    </row>
-    <row r="291" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D290" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
         <v>203</v>
       </c>
@@ -6041,8 +6925,11 @@
       <c r="C291">
         <v>26</v>
       </c>
-    </row>
-    <row r="292" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D291" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
         <v>204</v>
       </c>
@@ -6052,8 +6939,11 @@
       <c r="C292">
         <v>26</v>
       </c>
-    </row>
-    <row r="293" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D292" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
         <v>205</v>
       </c>
@@ -6063,8 +6953,11 @@
       <c r="C293">
         <v>26</v>
       </c>
-    </row>
-    <row r="294" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D293" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
         <v>206</v>
       </c>
@@ -6074,8 +6967,11 @@
       <c r="C294">
         <v>26</v>
       </c>
-    </row>
-    <row r="295" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D294" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="295" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
         <v>207</v>
       </c>
@@ -6085,8 +6981,11 @@
       <c r="C295">
         <v>26</v>
       </c>
-    </row>
-    <row r="296" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D295" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="296" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
         <v>208</v>
       </c>
@@ -6096,8 +6995,11 @@
       <c r="C296">
         <v>26</v>
       </c>
-    </row>
-    <row r="297" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D296" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
         <v>209</v>
       </c>
@@ -6107,8 +7009,11 @@
       <c r="C297">
         <v>26</v>
       </c>
-    </row>
-    <row r="298" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D297" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
         <v>210</v>
       </c>
@@ -6118,8 +7023,11 @@
       <c r="C298">
         <v>26</v>
       </c>
-    </row>
-    <row r="299" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D298" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
         <v>211</v>
       </c>
@@ -6129,8 +7037,11 @@
       <c r="C299">
         <v>26</v>
       </c>
-    </row>
-    <row r="300" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D299" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="300" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
         <v>212</v>
       </c>
@@ -6140,8 +7051,11 @@
       <c r="C300">
         <v>26</v>
       </c>
-    </row>
-    <row r="301" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D300" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="301" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
         <v>213</v>
       </c>
@@ -6151,8 +7065,11 @@
       <c r="C301">
         <v>26</v>
       </c>
-    </row>
-    <row r="302" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D301" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="302" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
         <v>214</v>
       </c>
@@ -6162,8 +7079,11 @@
       <c r="C302">
         <v>26</v>
       </c>
-    </row>
-    <row r="303" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D302" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="303" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
         <v>215</v>
       </c>
@@ -6173,8 +7093,11 @@
       <c r="C303">
         <v>27</v>
       </c>
-    </row>
-    <row r="304" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D303" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="304" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
         <v>216</v>
       </c>
@@ -6184,8 +7107,11 @@
       <c r="C304">
         <v>27</v>
       </c>
-    </row>
-    <row r="305" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D304" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="305" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
         <v>217</v>
       </c>
@@ -6195,8 +7121,11 @@
       <c r="C305">
         <v>27</v>
       </c>
-    </row>
-    <row r="306" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D305" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="306" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
         <v>218</v>
       </c>
@@ -6206,8 +7135,11 @@
       <c r="C306">
         <v>27</v>
       </c>
-    </row>
-    <row r="307" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D306" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="307" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
         <v>219</v>
       </c>
@@ -6217,8 +7149,11 @@
       <c r="C307">
         <v>27</v>
       </c>
-    </row>
-    <row r="308" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D307" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="308" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
         <v>219</v>
       </c>
@@ -6228,8 +7163,11 @@
       <c r="C308">
         <v>27</v>
       </c>
-    </row>
-    <row r="309" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D308" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="309" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
         <v>219</v>
       </c>
@@ -6239,8 +7177,11 @@
       <c r="C309">
         <v>27</v>
       </c>
-    </row>
-    <row r="310" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D309" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="310" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
         <v>219</v>
       </c>
@@ -6250,8 +7191,11 @@
       <c r="C310">
         <v>27</v>
       </c>
-    </row>
-    <row r="311" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D310" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="311" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
         <v>220</v>
       </c>
@@ -6261,8 +7205,11 @@
       <c r="C311">
         <v>27</v>
       </c>
-    </row>
-    <row r="312" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D311" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="312" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
         <v>221</v>
       </c>
@@ -6272,8 +7219,11 @@
       <c r="C312">
         <v>27</v>
       </c>
-    </row>
-    <row r="313" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D312" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="313" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
         <v>222</v>
       </c>
@@ -6283,8 +7233,11 @@
       <c r="C313">
         <v>28</v>
       </c>
-    </row>
-    <row r="314" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D313" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="314" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
         <v>223</v>
       </c>
@@ -6294,8 +7247,11 @@
       <c r="C314">
         <v>29</v>
       </c>
-    </row>
-    <row r="315" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D314" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="315" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
         <v>224</v>
       </c>
@@ -6305,8 +7261,11 @@
       <c r="C315">
         <v>30</v>
       </c>
-    </row>
-    <row r="316" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D315" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="316" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
         <v>73</v>
       </c>
@@ -6316,8 +7275,11 @@
       <c r="C316">
         <v>30</v>
       </c>
-    </row>
-    <row r="317" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D316" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="317" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
         <v>225</v>
       </c>
@@ -6327,8 +7289,11 @@
       <c r="C317">
         <v>31</v>
       </c>
-    </row>
-    <row r="318" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D317" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="318" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
         <v>226</v>
       </c>
@@ -6338,8 +7303,11 @@
       <c r="C318">
         <v>32</v>
       </c>
-    </row>
-    <row r="319" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D318" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="319" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
         <v>227</v>
       </c>
@@ -6349,8 +7317,11 @@
       <c r="C319">
         <v>33</v>
       </c>
-    </row>
-    <row r="320" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D319" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="320" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
         <v>228</v>
       </c>
@@ -6360,8 +7331,11 @@
       <c r="C320">
         <v>33</v>
       </c>
-    </row>
-    <row r="321" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D320" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="321" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
         <v>229</v>
       </c>
@@ -6371,8 +7345,11 @@
       <c r="C321">
         <v>34</v>
       </c>
-    </row>
-    <row r="322" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D321" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="322" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
         <v>230</v>
       </c>
@@ -6382,8 +7359,11 @@
       <c r="C322">
         <v>35</v>
       </c>
-    </row>
-    <row r="323" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D322" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="323" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
         <v>231</v>
       </c>
@@ -6392,6 +7372,9 @@
       </c>
       <c r="C323">
         <v>36</v>
+      </c>
+      <c r="D323" s="1">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
